--- a/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple5.xlsx
+++ b/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5077666-A876-4A9F-A0E3-C731DB9B9F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5B5F29-8AF8-4CB2-B5F5-3F0D56AC5F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15,S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16</t>
-  </si>
-  <si>
-    <t>S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05,S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02</t>
+    <t>S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15</t>
+  </si>
+  <si>
+    <t>S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05,S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02</v>
+        <v>S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15,S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16</v>
+        <v>S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC1CBD4-D767-49B3-BA1A-54EDE2D66A19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F55EAC-8B81-4338-8E80-CF2D19294704}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB5D65F-711A-4C81-A22E-19B513F78D3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DB8B4C-2585-4FD5-9824-12FE6DAE6867}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>469</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>0.10830924286565957</v>
+        <v>9.560747348173812E-2</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>0.24201623957307244</v>
+        <v>0.10847507741355956</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>9.560747348173812E-2</v>
+        <v>0.10830924286565957</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N7">
-        <v>0.10847507741355956</v>
+        <v>0.53877330642271426</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N8">
-        <v>0.53877330642271426</v>
+        <v>0.24201623957307244</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A47B953-CE8F-4E18-BBD5-2ADC96EEB78F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BE6283-F222-432A-8C18-216884FD5537}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple5.xlsx
+++ b/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5B5F29-8AF8-4CB2-B5F5-3F0D56AC5F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEAE1F4-A592-4E4A-AB51-A5BC073F4DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15</t>
-  </si>
-  <si>
-    <t>S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05</t>
+    <t>S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18</t>
+  </si>
+  <si>
+    <t>S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05</v>
+        <v>S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15</v>
+        <v>S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F55EAC-8B81-4338-8E80-CF2D19294704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5C3C29-EF40-46EC-84F9-B4F126B81804}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DB8B4C-2585-4FD5-9824-12FE6DAE6867}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1D51EB-2ABB-4777-A105-13286AB9F9F9}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7070,7 +7070,7 @@
         <v>467</v>
       </c>
       <c r="I4">
-        <v>2.4935287493762916E-2</v>
+        <v>2.9010999999999999E-2</v>
       </c>
       <c r="J4" t="s">
         <v>878</v>
@@ -7079,10 +7079,10 @@
         <v>469</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>9.560747348173812E-2</v>
+        <v>0.10830924286565957</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7105,7 +7105,7 @@
         <v>470</v>
       </c>
       <c r="I5">
-        <v>3.4056976880928965E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="J5" t="s">
         <v>878</v>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>0.10847507741355956</v>
+        <v>0.10681866024325613</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7128,7 +7128,7 @@
         <v>471</v>
       </c>
       <c r="C6">
-        <v>1.6164850858897364E-6</v>
+        <v>8.1000000000000008E-7</v>
       </c>
       <c r="D6" t="s">
         <v>468</v>
@@ -7140,7 +7140,7 @@
         <v>471</v>
       </c>
       <c r="I6">
-        <v>3.2921238258643531E-3</v>
+        <v>4.0260000000000001E-3</v>
       </c>
       <c r="J6" t="s">
         <v>878</v>
@@ -7149,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>0.10830924286565957</v>
+        <v>9.560747348173812E-2</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7163,7 +7163,7 @@
         <v>472</v>
       </c>
       <c r="C7">
-        <v>5.7084189099006998E-3</v>
+        <v>5.4788800000000002E-3</v>
       </c>
       <c r="D7" t="s">
         <v>468</v>
@@ -7175,7 +7175,7 @@
         <v>472</v>
       </c>
       <c r="I7">
-        <v>3.0223014325998412E-3</v>
+        <v>3.8799999999999998E-3</v>
       </c>
       <c r="J7" t="s">
         <v>878</v>
@@ -7198,7 +7198,7 @@
         <v>473</v>
       </c>
       <c r="C8">
-        <v>5.7483752439386984E-2</v>
+        <v>5.4638810000000003E-2</v>
       </c>
       <c r="D8" t="s">
         <v>468</v>
@@ -7210,7 +7210,7 @@
         <v>473</v>
       </c>
       <c r="I8">
-        <v>3.8133616902155387E-2</v>
+        <v>5.2128000000000001E-2</v>
       </c>
       <c r="J8" t="s">
         <v>878</v>
@@ -7233,7 +7233,7 @@
         <v>474</v>
       </c>
       <c r="C9">
-        <v>5.0564128441709698E-3</v>
+        <v>4.5069799999999998E-3</v>
       </c>
       <c r="D9" t="s">
         <v>468</v>
@@ -7245,7 +7245,7 @@
         <v>474</v>
       </c>
       <c r="I9">
-        <v>4.3745740360441876E-3</v>
+        <v>4.4669999999999996E-3</v>
       </c>
       <c r="J9" t="s">
         <v>878</v>
@@ -7254,10 +7254,10 @@
         <v>469</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N9">
-        <v>0.10681866024325613</v>
+        <v>0.10847507741355956</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -7280,7 +7280,7 @@
         <v>475</v>
       </c>
       <c r="I10">
-        <v>3.1997151064437654E-3</v>
+        <v>2.4220000000000001E-3</v>
       </c>
       <c r="J10" t="s">
         <v>878</v>
@@ -7306,7 +7306,7 @@
         <v>476</v>
       </c>
       <c r="I11">
-        <v>1.8565686751931428E-2</v>
+        <v>1.8280000000000001E-2</v>
       </c>
       <c r="J11" t="s">
         <v>878</v>
@@ -7332,7 +7332,7 @@
         <v>477</v>
       </c>
       <c r="I12">
-        <v>4.82816617644783E-5</v>
+        <v>3.4E-5</v>
       </c>
       <c r="J12" t="s">
         <v>878</v>
@@ -7358,7 +7358,7 @@
         <v>478</v>
       </c>
       <c r="I13">
-        <v>3.73205617780106E-5</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>878</v>
@@ -7384,7 +7384,7 @@
         <v>479</v>
       </c>
       <c r="I14">
-        <v>2.2671925946617399E-5</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>878</v>
@@ -7410,7 +7410,7 @@
         <v>480</v>
       </c>
       <c r="I15">
-        <v>2.5534337010332299E-5</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>878</v>
@@ -7436,7 +7436,7 @@
         <v>481</v>
       </c>
       <c r="I16">
-        <v>3.2165910743959701E-5</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>878</v>
@@ -7462,7 +7462,7 @@
         <v>482</v>
       </c>
       <c r="I17">
-        <v>3.1557108554096501E-5</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>878</v>
@@ -7488,7 +7488,7 @@
         <v>483</v>
       </c>
       <c r="I18">
-        <v>3.22681328415822E-5</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>878</v>
@@ -7514,7 +7514,7 @@
         <v>484</v>
       </c>
       <c r="I19">
-        <v>3.36167905661588E-5</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>878</v>
@@ -7540,7 +7540,7 @@
         <v>485</v>
       </c>
       <c r="I20">
-        <v>3.5873905027252102E-5</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>878</v>
@@ -7554,7 +7554,7 @@
         <v>486</v>
       </c>
       <c r="C21">
-        <v>2.062443349782E-4</v>
+        <v>7.1999999999999999E-7</v>
       </c>
       <c r="D21" t="s">
         <v>468</v>
@@ -7566,7 +7566,7 @@
         <v>486</v>
       </c>
       <c r="I21">
-        <v>3.1255609565354503E-5</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>878</v>
@@ -7580,7 +7580,7 @@
         <v>487</v>
       </c>
       <c r="C22">
-        <v>2.4707900837889999E-4</v>
+        <v>4.1300000000000003E-6</v>
       </c>
       <c r="D22" t="s">
         <v>468</v>
@@ -7592,7 +7592,7 @@
         <v>487</v>
       </c>
       <c r="I22">
-        <v>4.9224812010348699E-5</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>878</v>
@@ -7606,7 +7606,7 @@
         <v>488</v>
       </c>
       <c r="C23">
-        <v>2.7447490936600001E-4</v>
+        <v>1.042E-5</v>
       </c>
       <c r="D23" t="s">
         <v>468</v>
@@ -7618,7 +7618,7 @@
         <v>488</v>
       </c>
       <c r="I23">
-        <v>6.5863402883887197E-5</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>878</v>
@@ -7632,7 +7632,7 @@
         <v>489</v>
       </c>
       <c r="C24">
-        <v>2.875468199162E-4</v>
+        <v>1.1960000000000001E-5</v>
       </c>
       <c r="D24" t="s">
         <v>468</v>
@@ -7644,7 +7644,7 @@
         <v>489</v>
       </c>
       <c r="I24">
-        <v>7.1621911245122095E-5</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>878</v>
@@ -7658,7 +7658,7 @@
         <v>490</v>
       </c>
       <c r="C25">
-        <v>2.807287576947E-4</v>
+        <v>1.0849999999999999E-5</v>
       </c>
       <c r="D25" t="s">
         <v>468</v>
@@ -7670,7 +7670,7 @@
         <v>490</v>
       </c>
       <c r="I25">
-        <v>8.5686876882315301E-5</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>878</v>
@@ -7684,7 +7684,7 @@
         <v>491</v>
       </c>
       <c r="C26">
-        <v>2.858451704691E-4</v>
+        <v>1.15E-5</v>
       </c>
       <c r="D26" t="s">
         <v>468</v>
@@ -7696,7 +7696,7 @@
         <v>491</v>
       </c>
       <c r="I26">
-        <v>8.3161124887248694E-5</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>878</v>
@@ -7710,7 +7710,7 @@
         <v>492</v>
       </c>
       <c r="C27">
-        <v>2.392422493759E-4</v>
+        <v>8.0199999999999994E-6</v>
       </c>
       <c r="D27" t="s">
         <v>468</v>
@@ -7722,7 +7722,7 @@
         <v>492</v>
       </c>
       <c r="I27">
-        <v>7.7890643759070006E-5</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>878</v>
@@ -7736,7 +7736,7 @@
         <v>493</v>
       </c>
       <c r="C28">
-        <v>1.530550969925E-4</v>
+        <v>2.52E-6</v>
       </c>
       <c r="D28" t="s">
         <v>468</v>
@@ -7748,7 +7748,7 @@
         <v>493</v>
       </c>
       <c r="I28">
-        <v>7.2847687756153707E-5</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>878</v>
@@ -7762,7 +7762,7 @@
         <v>494</v>
       </c>
       <c r="C29">
-        <v>9.8671101286321105E-5</v>
+        <v>0</v>
       </c>
       <c r="D29" t="s">
         <v>468</v>
@@ -7774,7 +7774,7 @@
         <v>494</v>
       </c>
       <c r="I29">
-        <v>6.2784164580992607E-5</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>878</v>
@@ -7800,7 +7800,7 @@
         <v>495</v>
       </c>
       <c r="I30">
-        <v>6.3745947957069701E-5</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>878</v>
@@ -7826,7 +7826,7 @@
         <v>496</v>
       </c>
       <c r="I31">
-        <v>5.9186969693278703E-5</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>878</v>
@@ -7852,7 +7852,7 @@
         <v>497</v>
       </c>
       <c r="I32">
-        <v>6.4717503815549701E-5</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>878</v>
@@ -7878,7 +7878,7 @@
         <v>498</v>
       </c>
       <c r="I33">
-        <v>7.5341038882887194E-5</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>878</v>
@@ -7904,7 +7904,7 @@
         <v>499</v>
       </c>
       <c r="I34">
-        <v>7.2847687756153707E-5</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>878</v>
@@ -7930,7 +7930,7 @@
         <v>500</v>
       </c>
       <c r="I35">
-        <v>5.9340436262653401E-5</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>878</v>
@@ -7956,7 +7956,7 @@
         <v>501</v>
       </c>
       <c r="I36">
-        <v>5.8120106022324803E-5</v>
+        <v>2.9E-5</v>
       </c>
       <c r="J36" t="s">
         <v>878</v>
@@ -7982,7 +7982,7 @@
         <v>502</v>
       </c>
       <c r="I37">
-        <v>5.1147800704419499E-5</v>
+        <v>3.4E-5</v>
       </c>
       <c r="J37" t="s">
         <v>878</v>
@@ -8008,7 +8008,7 @@
         <v>503</v>
       </c>
       <c r="I38">
-        <v>5.1147800704419499E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="J38" t="s">
         <v>878</v>
@@ -8034,7 +8034,7 @@
         <v>504</v>
       </c>
       <c r="I39">
-        <v>6.3584973417150995E-5</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="J39" t="s">
         <v>878</v>
@@ -8060,7 +8060,7 @@
         <v>505</v>
       </c>
       <c r="I40">
-        <v>6.4717503815549701E-5</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="J40" t="s">
         <v>878</v>
@@ -8086,7 +8086,7 @@
         <v>506</v>
       </c>
       <c r="I41">
-        <v>6.1359704864236999E-5</v>
+        <v>1.6899999999999999E-4</v>
       </c>
       <c r="J41" t="s">
         <v>878</v>
@@ -8112,7 +8112,7 @@
         <v>507</v>
       </c>
       <c r="I42">
-        <v>6.0266809826755001E-5</v>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="J42" t="s">
         <v>878</v>
@@ -8138,7 +8138,7 @@
         <v>508</v>
       </c>
       <c r="I43">
-        <v>6.4717503815549701E-5</v>
+        <v>2.2699999999999999E-4</v>
       </c>
       <c r="J43" t="s">
         <v>878</v>
@@ -8164,7 +8164,7 @@
         <v>509</v>
       </c>
       <c r="I44">
-        <v>7.9186737456912997E-5</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J44" t="s">
         <v>878</v>
@@ -8178,7 +8178,7 @@
         <v>510</v>
       </c>
       <c r="C45">
-        <v>3.070437264055E-4</v>
+        <v>3.2916999999999999E-4</v>
       </c>
       <c r="D45" t="s">
         <v>468</v>
@@ -8190,7 +8190,7 @@
         <v>510</v>
       </c>
       <c r="I45">
-        <v>8.5883256202977295E-5</v>
+        <v>2.7E-4</v>
       </c>
       <c r="J45" t="s">
         <v>878</v>
@@ -8204,7 +8204,7 @@
         <v>511</v>
       </c>
       <c r="C46">
-        <v>3.934953796413E-4</v>
+        <v>4.0876999999999998E-4</v>
       </c>
       <c r="D46" t="s">
         <v>468</v>
@@ -8216,7 +8216,7 @@
         <v>511</v>
       </c>
       <c r="I46">
-        <v>1.030276458031E-4</v>
+        <v>1.1E-4</v>
       </c>
       <c r="J46" t="s">
         <v>878</v>
@@ -8230,7 +8230,7 @@
         <v>512</v>
       </c>
       <c r="C47">
-        <v>4.255442027449E-4</v>
+        <v>4.4588000000000001E-4</v>
       </c>
       <c r="D47" t="s">
         <v>468</v>
@@ -8242,7 +8242,7 @@
         <v>512</v>
       </c>
       <c r="I47">
-        <v>2.2714011391809999E-4</v>
+        <v>4.6700000000000002E-4</v>
       </c>
       <c r="J47" t="s">
         <v>878</v>
@@ -8256,7 +8256,7 @@
         <v>513</v>
       </c>
       <c r="C48">
-        <v>4.2587994686100003E-4</v>
+        <v>4.5792000000000001E-4</v>
       </c>
       <c r="D48" t="s">
         <v>468</v>
@@ -8268,7 +8268,7 @@
         <v>513</v>
       </c>
       <c r="I48">
-        <v>3.4448335073829998E-4</v>
+        <v>4.6700000000000002E-4</v>
       </c>
       <c r="J48" t="s">
         <v>878</v>
@@ -8282,7 +8282,7 @@
         <v>514</v>
       </c>
       <c r="C49">
-        <v>4.3312219311210002E-4</v>
+        <v>4.5807999999999998E-4</v>
       </c>
       <c r="D49" t="s">
         <v>468</v>
@@ -8294,7 +8294,7 @@
         <v>514</v>
       </c>
       <c r="I49">
-        <v>3.9055292048009998E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="J49" t="s">
         <v>878</v>
@@ -8308,7 +8308,7 @@
         <v>515</v>
       </c>
       <c r="C50">
-        <v>3.8957536236359998E-4</v>
+        <v>4.5028000000000001E-4</v>
       </c>
       <c r="D50" t="s">
         <v>468</v>
@@ -8320,7 +8320,7 @@
         <v>515</v>
       </c>
       <c r="I50">
-        <v>4.9087763891380004E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="J50" t="s">
         <v>878</v>
@@ -8334,7 +8334,7 @@
         <v>516</v>
       </c>
       <c r="C51">
-        <v>3.7252856903389998E-4</v>
+        <v>4.2667999999999997E-4</v>
       </c>
       <c r="D51" t="s">
         <v>468</v>
@@ -8346,7 +8346,7 @@
         <v>516</v>
       </c>
       <c r="I51">
-        <v>3.8358211900509998E-4</v>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="J51" t="s">
         <v>878</v>
@@ -8360,7 +8360,7 @@
         <v>517</v>
       </c>
       <c r="C52">
-        <v>3.2971709978849999E-4</v>
+        <v>3.8447999999999998E-4</v>
       </c>
       <c r="D52" t="s">
         <v>468</v>
@@ -8372,7 +8372,7 @@
         <v>517</v>
       </c>
       <c r="I52">
-        <v>3.6522791516400001E-4</v>
+        <v>1.6899999999999999E-4</v>
       </c>
       <c r="J52" t="s">
         <v>878</v>
@@ -8386,7 +8386,7 @@
         <v>518</v>
       </c>
       <c r="C53">
-        <v>2.337368647597E-4</v>
+        <v>2.9365000000000001E-4</v>
       </c>
       <c r="D53" t="s">
         <v>468</v>
@@ -8398,7 +8398,7 @@
         <v>518</v>
       </c>
       <c r="I53">
-        <v>2.222889847331E-4</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="J53" t="s">
         <v>878</v>
@@ -8424,7 +8424,7 @@
         <v>519</v>
       </c>
       <c r="I54">
-        <v>1.7720233365889999E-4</v>
+        <v>1.6899999999999999E-4</v>
       </c>
       <c r="J54" t="s">
         <v>878</v>
@@ -8450,7 +8450,7 @@
         <v>520</v>
       </c>
       <c r="I55">
-        <v>1.9496482278480001E-4</v>
+        <v>2.2699999999999999E-4</v>
       </c>
       <c r="J55" t="s">
         <v>878</v>
@@ -8476,7 +8476,7 @@
         <v>521</v>
       </c>
       <c r="I56">
-        <v>2.324427843361E-4</v>
+        <v>2.99E-4</v>
       </c>
       <c r="J56" t="s">
         <v>878</v>
@@ -8502,7 +8502,7 @@
         <v>522</v>
       </c>
       <c r="I57">
-        <v>2.2978125173429999E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="J57" t="s">
         <v>878</v>
@@ -8528,7 +8528,7 @@
         <v>523</v>
       </c>
       <c r="I58">
-        <v>2.1207602740680001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="J58" t="s">
         <v>878</v>
@@ -8554,7 +8554,7 @@
         <v>524</v>
       </c>
       <c r="I59">
-        <v>1.936101212926E-4</v>
+        <v>4.6700000000000002E-4</v>
       </c>
       <c r="J59" t="s">
         <v>878</v>
@@ -8580,7 +8580,7 @@
         <v>525</v>
       </c>
       <c r="I60">
-        <v>2.3550124901335304E-2</v>
+        <v>2.5951000000000002E-2</v>
       </c>
       <c r="J60" t="s">
         <v>878</v>
@@ -8606,7 +8606,7 @@
         <v>526</v>
       </c>
       <c r="I61">
-        <v>3.0334012794473561E-3</v>
+        <v>2.1489999999999999E-3</v>
       </c>
       <c r="J61" t="s">
         <v>878</v>
@@ -8620,7 +8620,7 @@
         <v>527</v>
       </c>
       <c r="C62">
-        <v>3.1379627757982765E-3</v>
+        <v>3.21266E-3</v>
       </c>
       <c r="D62" t="s">
         <v>468</v>
@@ -8632,7 +8632,7 @@
         <v>527</v>
       </c>
       <c r="I62">
-        <v>2.8702535486500127E-3</v>
+        <v>1.856E-3</v>
       </c>
       <c r="J62" t="s">
         <v>878</v>
@@ -8646,7 +8646,7 @@
         <v>528</v>
       </c>
       <c r="C63">
-        <v>5.6269985050783119E-3</v>
+        <v>5.7259399999999997E-3</v>
       </c>
       <c r="D63" t="s">
         <v>468</v>
@@ -8658,7 +8658,7 @@
         <v>528</v>
       </c>
       <c r="I63">
-        <v>2.6838587381777788E-3</v>
+        <v>3.1489999999999999E-3</v>
       </c>
       <c r="J63" t="s">
         <v>878</v>
@@ -8672,7 +8672,7 @@
         <v>529</v>
       </c>
       <c r="C64">
-        <v>5.3480057901307297E-2</v>
+        <v>4.9229380000000003E-2</v>
       </c>
       <c r="D64" t="s">
         <v>468</v>
@@ -8684,7 +8684,7 @@
         <v>529</v>
       </c>
       <c r="I64">
-        <v>3.5942876121422496E-2</v>
+        <v>4.7287000000000003E-2</v>
       </c>
       <c r="J64" t="s">
         <v>878</v>
@@ -8698,7 +8698,7 @@
         <v>530</v>
       </c>
       <c r="C65">
-        <v>5.2521393805454513E-3</v>
+        <v>4.9011300000000001E-3</v>
       </c>
       <c r="D65" t="s">
         <v>468</v>
@@ -8710,7 +8710,7 @@
         <v>530</v>
       </c>
       <c r="I65">
-        <v>4.7708460191867724E-3</v>
+        <v>5.6410000000000002E-3</v>
       </c>
       <c r="J65" t="s">
         <v>878</v>
@@ -8724,7 +8724,7 @@
         <v>531</v>
       </c>
       <c r="C66">
-        <v>1.4994455058990484E-3</v>
+        <v>1.50538E-3</v>
       </c>
       <c r="D66" t="s">
         <v>468</v>
@@ -8736,7 +8736,7 @@
         <v>531</v>
       </c>
       <c r="I66">
-        <v>3.6118164659592073E-3</v>
+        <v>3.588E-3</v>
       </c>
       <c r="J66" t="s">
         <v>878</v>
@@ -8762,7 +8762,7 @@
         <v>532</v>
       </c>
       <c r="I67">
-        <v>2.1092571086704166E-2</v>
+        <v>2.1682E-2</v>
       </c>
       <c r="J67" t="s">
         <v>878</v>
@@ -8788,7 +8788,7 @@
         <v>533</v>
       </c>
       <c r="I68">
-        <v>9.2533338886853899E-5</v>
+        <v>1.8799999999999999E-4</v>
       </c>
       <c r="J68" t="s">
         <v>878</v>
@@ -8814,7 +8814,7 @@
         <v>534</v>
       </c>
       <c r="I69">
-        <v>1.093660837137E-4</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J69" t="s">
         <v>878</v>
@@ -8840,7 +8840,7 @@
         <v>535</v>
       </c>
       <c r="I70">
-        <v>1.0752932324940001E-4</v>
+        <v>1.6899999999999999E-4</v>
       </c>
       <c r="J70" t="s">
         <v>878</v>
@@ -8866,7 +8866,7 @@
         <v>536</v>
       </c>
       <c r="I71">
-        <v>8.6869654615612704E-5</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J71" t="s">
         <v>878</v>
@@ -8892,7 +8892,7 @@
         <v>537</v>
       </c>
       <c r="I72">
-        <v>9.5666260284484804E-5</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J72" t="s">
         <v>878</v>
@@ -8918,7 +8918,7 @@
         <v>538</v>
       </c>
       <c r="I73">
-        <v>8.7465103343579805E-5</v>
+        <v>1.8799999999999999E-4</v>
       </c>
       <c r="J73" t="s">
         <v>878</v>
@@ -8944,7 +8944,7 @@
         <v>539</v>
       </c>
       <c r="I74">
-        <v>9.0076831549493606E-5</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="J74" t="s">
         <v>878</v>
@@ -8970,7 +8970,7 @@
         <v>540</v>
       </c>
       <c r="I75">
-        <v>8.3161124887248694E-5</v>
+        <v>7.2999999999999999E-5</v>
       </c>
       <c r="J75" t="s">
         <v>878</v>
@@ -8984,7 +8984,7 @@
         <v>541</v>
       </c>
       <c r="C76">
-        <v>1.6205303930439999E-4</v>
+        <v>2.3439000000000001E-4</v>
       </c>
       <c r="D76" t="s">
         <v>468</v>
@@ -8996,7 +8996,7 @@
         <v>541</v>
       </c>
       <c r="I76">
-        <v>9.8437995394779696E-5</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="J76" t="s">
         <v>878</v>
@@ -9010,7 +9010,7 @@
         <v>542</v>
       </c>
       <c r="C77">
-        <v>2.7971169868930003E-4</v>
+        <v>2.9008000000000001E-4</v>
       </c>
       <c r="D77" t="s">
         <v>468</v>
@@ -9022,7 +9022,7 @@
         <v>542</v>
       </c>
       <c r="I77">
-        <v>1.014822570671E-4</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J77" t="s">
         <v>878</v>
@@ -9036,7 +9036,7 @@
         <v>543</v>
       </c>
       <c r="C78">
-        <v>3.569484042699E-4</v>
+        <v>3.3795E-4</v>
       </c>
       <c r="D78" t="s">
         <v>468</v>
@@ -9048,7 +9048,7 @@
         <v>543</v>
       </c>
       <c r="I78">
-        <v>1.312294379759E-4</v>
+        <v>8.9099999999999997E-4</v>
       </c>
       <c r="J78" t="s">
         <v>878</v>
@@ -9062,7 +9062,7 @@
         <v>544</v>
       </c>
       <c r="C79">
-        <v>4.0507118165460001E-4</v>
+        <v>4.4601999999999999E-4</v>
       </c>
       <c r="D79" t="s">
         <v>468</v>
@@ -9074,7 +9074,7 @@
         <v>544</v>
       </c>
       <c r="I79">
-        <v>2.3016022018749999E-4</v>
+        <v>1.1360000000000001E-3</v>
       </c>
       <c r="J79" t="s">
         <v>878</v>
@@ -9088,7 +9088,7 @@
         <v>545</v>
       </c>
       <c r="C80">
-        <v>4.1696798779829999E-4</v>
+        <v>4.4263000000000001E-4</v>
       </c>
       <c r="D80" t="s">
         <v>468</v>
@@ -9100,7 +9100,7 @@
         <v>545</v>
       </c>
       <c r="I80">
-        <v>2.488446631688E-4</v>
+        <v>1.276E-3</v>
       </c>
       <c r="J80" t="s">
         <v>878</v>
@@ -9114,7 +9114,7 @@
         <v>546</v>
       </c>
       <c r="C81">
-        <v>4.2596265455790001E-4</v>
+        <v>4.2334000000000002E-4</v>
       </c>
       <c r="D81" t="s">
         <v>468</v>
@@ -9126,7 +9126,7 @@
         <v>546</v>
       </c>
       <c r="I81">
-        <v>2.7146611648040002E-4</v>
+        <v>1.5560000000000001E-3</v>
       </c>
       <c r="J81" t="s">
         <v>878</v>
@@ -9140,7 +9140,7 @@
         <v>547</v>
       </c>
       <c r="C82">
-        <v>4.2028694121940002E-4</v>
+        <v>3.9731E-4</v>
       </c>
       <c r="D82" t="s">
         <v>468</v>
@@ -9152,7 +9152,7 @@
         <v>547</v>
       </c>
       <c r="I82">
-        <v>2.8349138583679998E-4</v>
+        <v>1.756E-3</v>
       </c>
       <c r="J82" t="s">
         <v>878</v>
@@ -9166,7 +9166,7 @@
         <v>548</v>
       </c>
       <c r="C83">
-        <v>3.9533787783949998E-4</v>
+        <v>3.2442000000000001E-4</v>
       </c>
       <c r="D83" t="s">
         <v>468</v>
@@ -9178,7 +9178,7 @@
         <v>548</v>
       </c>
       <c r="I83">
-        <v>2.6558315678000002E-4</v>
+        <v>2.5400000000000002E-3</v>
       </c>
       <c r="J83" t="s">
         <v>878</v>
@@ -9192,7 +9192,7 @@
         <v>549</v>
       </c>
       <c r="C84">
-        <v>3.4556012762880002E-4</v>
+        <v>2.9526999999999998E-4</v>
       </c>
       <c r="D84" t="s">
         <v>468</v>
@@ -9204,7 +9204,7 @@
         <v>549</v>
       </c>
       <c r="I84">
-        <v>2.8699124021800001E-4</v>
+        <v>2.4610000000000001E-3</v>
       </c>
       <c r="J84" t="s">
         <v>878</v>
@@ -9218,7 +9218,7 @@
         <v>550</v>
       </c>
       <c r="C85">
-        <v>2.5493132625560003E-4</v>
+        <v>1.373E-4</v>
       </c>
       <c r="D85" t="s">
         <v>468</v>
@@ -9230,7 +9230,7 @@
         <v>550</v>
       </c>
       <c r="I85">
-        <v>2.5814506273259997E-4</v>
+        <v>2.4610000000000001E-3</v>
       </c>
       <c r="J85" t="s">
         <v>878</v>
@@ -9244,7 +9244,7 @@
         <v>551</v>
       </c>
       <c r="C86">
-        <v>1.6462025346060001E-4</v>
+        <v>9.2819999999999996E-5</v>
       </c>
       <c r="D86" t="s">
         <v>468</v>
@@ -9256,7 +9256,7 @@
         <v>551</v>
       </c>
       <c r="I86">
-        <v>1.480669232526E-4</v>
+        <v>2.091E-3</v>
       </c>
       <c r="J86" t="s">
         <v>878</v>
@@ -9282,7 +9282,7 @@
         <v>552</v>
       </c>
       <c r="I87">
-        <v>1.174057607426E-4</v>
+        <v>7.9100000000000004E-4</v>
       </c>
       <c r="J87" t="s">
         <v>878</v>
@@ -9308,7 +9308,7 @@
         <v>553</v>
       </c>
       <c r="I88">
-        <v>1.1263053062969999E-4</v>
+        <v>5.6800000000000004E-4</v>
       </c>
       <c r="J88" t="s">
         <v>878</v>
@@ -9334,7 +9334,7 @@
         <v>554</v>
       </c>
       <c r="I89">
-        <v>1.5234605310120001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J89" t="s">
         <v>878</v>
@@ -9360,7 +9360,7 @@
         <v>555</v>
       </c>
       <c r="I90">
-        <v>1.7944132600289999E-4</v>
+        <v>5.3399999999999997E-4</v>
       </c>
       <c r="J90" t="s">
         <v>878</v>
@@ -9386,7 +9386,7 @@
         <v>556</v>
       </c>
       <c r="I91">
-        <v>1.929351301944E-4</v>
+        <v>5.6800000000000004E-4</v>
       </c>
       <c r="J91" t="s">
         <v>878</v>
@@ -9412,7 +9412,7 @@
         <v>557</v>
       </c>
       <c r="I92">
-        <v>2.5732728595159998E-4</v>
+        <v>1.1E-4</v>
       </c>
       <c r="J92" t="s">
         <v>878</v>
@@ -9438,7 +9438,7 @@
         <v>558</v>
       </c>
       <c r="I93">
-        <v>2.245192924462E-4</v>
+        <v>1.4899999999999999E-4</v>
       </c>
       <c r="J93" t="s">
         <v>878</v>
@@ -9464,7 +9464,7 @@
         <v>559</v>
       </c>
       <c r="I94">
-        <v>1.9803597460170001E-4</v>
+        <v>1.6899999999999999E-4</v>
       </c>
       <c r="J94" t="s">
         <v>878</v>
@@ -9490,7 +9490,7 @@
         <v>560</v>
       </c>
       <c r="I95">
-        <v>2.355096097126E-4</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="J95" t="s">
         <v>878</v>
@@ -9516,7 +9516,7 @@
         <v>561</v>
       </c>
       <c r="I96">
-        <v>2.432944314295E-4</v>
+        <v>1.6899999999999999E-4</v>
       </c>
       <c r="J96" t="s">
         <v>878</v>
@@ -9542,7 +9542,7 @@
         <v>562</v>
       </c>
       <c r="I97">
-        <v>2.4605911458189998E-4</v>
+        <v>1.6899999999999999E-4</v>
       </c>
       <c r="J97" t="s">
         <v>878</v>
@@ -9568,7 +9568,7 @@
         <v>563</v>
       </c>
       <c r="I98">
-        <v>2.3589484891059999E-4</v>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="J98" t="s">
         <v>878</v>
@@ -9594,7 +9594,7 @@
         <v>564</v>
       </c>
       <c r="I99">
-        <v>2.355096097126E-4</v>
+        <v>2.2699999999999999E-4</v>
       </c>
       <c r="J99" t="s">
         <v>878</v>
@@ -9608,7 +9608,7 @@
         <v>565</v>
       </c>
       <c r="C100">
-        <v>1.2433832951940001E-4</v>
+        <v>8.2719999999999994E-5</v>
       </c>
       <c r="D100" t="s">
         <v>468</v>
@@ -9620,7 +9620,7 @@
         <v>565</v>
       </c>
       <c r="I100">
-        <v>2.6267382112909999E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="J100" t="s">
         <v>878</v>
@@ -9634,7 +9634,7 @@
         <v>566</v>
       </c>
       <c r="C101">
-        <v>1.857369205882E-4</v>
+        <v>3.4759999999999999E-5</v>
       </c>
       <c r="D101" t="s">
         <v>468</v>
@@ -9646,7 +9646,7 @@
         <v>566</v>
       </c>
       <c r="I101">
-        <v>3.0813607369489999E-4</v>
+        <v>5.9699999999999998E-4</v>
       </c>
       <c r="J101" t="s">
         <v>878</v>
@@ -9660,7 +9660,7 @@
         <v>567</v>
       </c>
       <c r="C102">
-        <v>2.5453662219719999E-4</v>
+        <v>1.942E-5</v>
       </c>
       <c r="D102" t="s">
         <v>468</v>
@@ -9672,7 +9672,7 @@
         <v>567</v>
       </c>
       <c r="I102">
-        <v>4.4997617410210002E-4</v>
+        <v>8.4099999999999995E-4</v>
       </c>
       <c r="J102" t="s">
         <v>878</v>
@@ -9686,7 +9686,7 @@
         <v>568</v>
       </c>
       <c r="C103">
-        <v>2.4496054489500001E-4</v>
+        <v>3.0110000000000001E-5</v>
       </c>
       <c r="D103" t="s">
         <v>468</v>
@@ -9698,7 +9698,7 @@
         <v>568</v>
       </c>
       <c r="I103">
-        <v>5.5437516345560004E-4</v>
+        <v>8.9099999999999997E-4</v>
       </c>
       <c r="J103" t="s">
         <v>878</v>
@@ -9712,7 +9712,7 @@
         <v>569</v>
       </c>
       <c r="C104">
-        <v>2.6256418212469999E-4</v>
+        <v>3.7910000000000001E-5</v>
       </c>
       <c r="D104" t="s">
         <v>468</v>
@@ -9724,7 +9724,7 @@
         <v>569</v>
       </c>
       <c r="I104">
-        <v>7.0851051805609995E-4</v>
+        <v>7.9100000000000004E-4</v>
       </c>
       <c r="J104" t="s">
         <v>878</v>
@@ -9738,7 +9738,7 @@
         <v>570</v>
       </c>
       <c r="C105">
-        <v>2.611737101511E-4</v>
+        <v>2.8739999999999999E-5</v>
       </c>
       <c r="D105" t="s">
         <v>468</v>
@@ -9750,7 +9750,7 @@
         <v>570</v>
       </c>
       <c r="I105">
-        <v>8.5658695304369995E-4</v>
+        <v>9.4200000000000002E-4</v>
       </c>
       <c r="J105" t="s">
         <v>878</v>
@@ -9764,7 +9764,7 @@
         <v>571</v>
       </c>
       <c r="C106">
-        <v>2.9337484643910002E-4</v>
+        <v>2.3589999999999999E-5</v>
       </c>
       <c r="D106" t="s">
         <v>468</v>
@@ -9776,7 +9776,7 @@
         <v>571</v>
       </c>
       <c r="I106">
-        <v>8.0572313505509997E-4</v>
+        <v>8.9099999999999997E-4</v>
       </c>
       <c r="J106" t="s">
         <v>878</v>
@@ -9790,7 +9790,7 @@
         <v>572</v>
       </c>
       <c r="C107">
-        <v>3.1135271552500002E-4</v>
+        <v>6.7409999999999993E-5</v>
       </c>
       <c r="D107" t="s">
         <v>468</v>
@@ -9802,7 +9802,7 @@
         <v>572</v>
       </c>
       <c r="I107">
-        <v>7.9441185345820002E-4</v>
+        <v>9.9200000000000004E-4</v>
       </c>
       <c r="J107" t="s">
         <v>878</v>
@@ -9816,7 +9816,7 @@
         <v>573</v>
       </c>
       <c r="C108">
-        <v>2.66155006391E-4</v>
+        <v>3.9270000000000002E-5</v>
       </c>
       <c r="D108" t="s">
         <v>468</v>
@@ -9828,7 +9828,7 @@
         <v>573</v>
       </c>
       <c r="I108">
-        <v>7.6448565784050003E-4</v>
+        <v>8.4099999999999995E-4</v>
       </c>
       <c r="J108" t="s">
         <v>878</v>
@@ -9842,7 +9842,7 @@
         <v>574</v>
       </c>
       <c r="C109">
-        <v>2.2450308267839999E-4</v>
+        <v>1.5058000000000001E-4</v>
       </c>
       <c r="D109" t="s">
         <v>468</v>
@@ -9854,7 +9854,7 @@
         <v>574</v>
       </c>
       <c r="I109">
-        <v>7.303966191288E-4</v>
+        <v>5.6800000000000004E-4</v>
       </c>
       <c r="J109" t="s">
         <v>878</v>
@@ -9868,7 +9868,7 @@
         <v>575</v>
       </c>
       <c r="C110">
-        <v>1.6609834645959999E-4</v>
+        <v>1.4615E-4</v>
       </c>
       <c r="D110" t="s">
         <v>468</v>
@@ -9880,7 +9880,7 @@
         <v>575</v>
       </c>
       <c r="I110">
-        <v>6.0778513439959997E-4</v>
+        <v>3.6600000000000001E-4</v>
       </c>
       <c r="J110" t="s">
         <v>878</v>
@@ -9906,7 +9906,7 @@
         <v>576</v>
       </c>
       <c r="I111">
-        <v>5.1774003052430003E-4</v>
+        <v>1.4899999999999999E-4</v>
       </c>
       <c r="J111" t="s">
         <v>878</v>
@@ -9932,7 +9932,7 @@
         <v>577</v>
       </c>
       <c r="I112">
-        <v>4.0199099263409999E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="J112" t="s">
         <v>878</v>
@@ -9958,7 +9958,7 @@
         <v>578</v>
       </c>
       <c r="I113">
-        <v>3.4746874600330001E-4</v>
+        <v>3.4E-5</v>
       </c>
       <c r="J113" t="s">
         <v>878</v>
@@ -9984,7 +9984,7 @@
         <v>579</v>
       </c>
       <c r="I114">
-        <v>3.7616840577510001E-4</v>
+        <v>2.2699999999999999E-4</v>
       </c>
       <c r="J114" t="s">
         <v>878</v>
@@ -10010,7 +10010,7 @@
         <v>580</v>
       </c>
       <c r="I115">
-        <v>3.6522791516400001E-4</v>
+        <v>2.7E-4</v>
       </c>
       <c r="J115" t="s">
         <v>878</v>
@@ -10036,7 +10036,7 @@
         <v>581</v>
       </c>
       <c r="I116">
-        <v>2.3901237701902524E-2</v>
+        <v>1.6580000000000001E-2</v>
       </c>
       <c r="J116" t="s">
         <v>878</v>
@@ -10050,7 +10050,7 @@
         <v>582</v>
       </c>
       <c r="C117">
-        <v>1.2545103465348227E-3</v>
+        <v>1.6961999999999999E-3</v>
       </c>
       <c r="D117" t="s">
         <v>468</v>
@@ -10062,7 +10062,7 @@
         <v>582</v>
       </c>
       <c r="I117">
-        <v>2.9111838340747848E-3</v>
+        <v>2.7330000000000002E-3</v>
       </c>
       <c r="J117" t="s">
         <v>878</v>
@@ -10076,7 +10076,7 @@
         <v>583</v>
       </c>
       <c r="C118">
-        <v>5.5022318970884814E-3</v>
+        <v>6.5335200000000001E-3</v>
       </c>
       <c r="D118" t="s">
         <v>468</v>
@@ -10088,7 +10088,7 @@
         <v>583</v>
       </c>
       <c r="I118">
-        <v>2.6376729096198098E-3</v>
+        <v>2.941E-3</v>
       </c>
       <c r="J118" t="s">
         <v>878</v>
@@ -10102,7 +10102,7 @@
         <v>584</v>
       </c>
       <c r="C119">
-        <v>7.3704194335028998E-3</v>
+        <v>8.3110700000000003E-3</v>
       </c>
       <c r="D119" t="s">
         <v>468</v>
@@ -10114,7 +10114,7 @@
         <v>584</v>
       </c>
       <c r="I119">
-        <v>2.7781870475046128E-3</v>
+        <v>3.666E-3</v>
       </c>
       <c r="J119" t="s">
         <v>878</v>
@@ -10128,7 +10128,7 @@
         <v>585</v>
       </c>
       <c r="C120">
-        <v>5.9671516784394203E-2</v>
+        <v>6.0632190000000002E-2</v>
       </c>
       <c r="D120" t="s">
         <v>468</v>
@@ -10140,7 +10140,7 @@
         <v>585</v>
       </c>
       <c r="I120">
-        <v>4.5778594250065016E-2</v>
+        <v>8.8220000000000007E-2</v>
       </c>
       <c r="J120" t="s">
         <v>878</v>
@@ -10154,7 +10154,7 @@
         <v>586</v>
       </c>
       <c r="C121">
-        <v>6.3753451165958945E-3</v>
+        <v>5.88011E-3</v>
       </c>
       <c r="D121" t="s">
         <v>468</v>
@@ -10166,7 +10166,7 @@
         <v>586</v>
       </c>
       <c r="I121">
-        <v>6.4663505639885755E-3</v>
+        <v>1.3318E-2</v>
       </c>
       <c r="J121" t="s">
         <v>878</v>
@@ -10180,7 +10180,7 @@
         <v>587</v>
       </c>
       <c r="C122">
-        <v>4.4818490249314931E-3</v>
+        <v>4.1365600000000001E-3</v>
       </c>
       <c r="D122" t="s">
         <v>468</v>
@@ -10192,7 +10192,7 @@
         <v>587</v>
       </c>
       <c r="I122">
-        <v>4.7151075224541768E-3</v>
+        <v>8.9960000000000005E-3</v>
       </c>
       <c r="J122" t="s">
         <v>878</v>
@@ -10218,7 +10218,7 @@
         <v>588</v>
       </c>
       <c r="I123">
-        <v>2.1400068864515651E-2</v>
+        <v>1.7944000000000002E-2</v>
       </c>
       <c r="J123" t="s">
         <v>878</v>
@@ -10244,7 +10244,7 @@
         <v>589</v>
       </c>
       <c r="I124">
-        <v>1.4976882535019999E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="J124" t="s">
         <v>878</v>
@@ -10270,7 +10270,7 @@
         <v>590</v>
       </c>
       <c r="I125">
-        <v>1.520582457723E-4</v>
+        <v>2.3E-5</v>
       </c>
       <c r="J125" t="s">
         <v>878</v>
@@ -10296,7 +10296,7 @@
         <v>591</v>
       </c>
       <c r="I126">
-        <v>1.422118612391E-4</v>
+        <v>1.7E-5</v>
       </c>
       <c r="J126" t="s">
         <v>878</v>
@@ -10322,7 +10322,7 @@
         <v>592</v>
       </c>
       <c r="I127">
-        <v>1.9803597460170001E-4</v>
+        <v>5.7000000000000003E-5</v>
       </c>
       <c r="J127" t="s">
         <v>878</v>
@@ -10348,7 +10348,7 @@
         <v>593</v>
       </c>
       <c r="I128">
-        <v>1.9091957353680001E-4</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J128" t="s">
         <v>878</v>
@@ -10374,7 +10374,7 @@
         <v>594</v>
       </c>
       <c r="I129">
-        <v>2.074425991801E-4</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J129" t="s">
         <v>878</v>
@@ -10400,7 +10400,7 @@
         <v>595</v>
       </c>
       <c r="I130">
-        <v>2.1207602740680001E-4</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J130" t="s">
         <v>878</v>
@@ -10414,7 +10414,7 @@
         <v>596</v>
       </c>
       <c r="C131">
-        <v>1.162649118589E-4</v>
+        <v>2.1727000000000001E-4</v>
       </c>
       <c r="D131" t="s">
         <v>468</v>
@@ -10426,7 +10426,7 @@
         <v>596</v>
       </c>
       <c r="I131">
-        <v>2.1496137623909999E-4</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J131" t="s">
         <v>878</v>
@@ -10440,7 +10440,7 @@
         <v>597</v>
       </c>
       <c r="C132">
-        <v>2.0749068264830001E-4</v>
+        <v>3.5186000000000001E-4</v>
       </c>
       <c r="D132" t="s">
         <v>468</v>
@@ -10452,7 +10452,7 @@
         <v>597</v>
       </c>
       <c r="I132">
-        <v>2.3821510956620001E-4</v>
+        <v>7.2999999999999999E-5</v>
       </c>
       <c r="J132" t="s">
         <v>878</v>
@@ -10466,7 +10466,7 @@
         <v>598</v>
       </c>
       <c r="C133">
-        <v>2.6295724840700002E-4</v>
+        <v>4.1627E-4</v>
       </c>
       <c r="D133" t="s">
         <v>468</v>
@@ -10478,7 +10478,7 @@
         <v>598</v>
       </c>
       <c r="I133">
-        <v>3.4448335073829998E-4</v>
+        <v>1.6899999999999999E-4</v>
       </c>
       <c r="J133" t="s">
         <v>878</v>
@@ -10492,7 +10492,7 @@
         <v>599</v>
       </c>
       <c r="C134">
-        <v>3.1753368281389998E-4</v>
+        <v>3.7902999999999998E-4</v>
       </c>
       <c r="D134" t="s">
         <v>468</v>
@@ -10504,7 +10504,7 @@
         <v>599</v>
       </c>
       <c r="I134">
-        <v>5.0867978733720005E-4</v>
+        <v>1.276E-3</v>
       </c>
       <c r="J134" t="s">
         <v>878</v>
@@ -10518,7 +10518,7 @@
         <v>600</v>
       </c>
       <c r="C135">
-        <v>3.0051882611960003E-4</v>
+        <v>1.9986E-4</v>
       </c>
       <c r="D135" t="s">
         <v>468</v>
@@ -10530,7 +10530,7 @@
         <v>600</v>
       </c>
       <c r="I135">
-        <v>6.0778513439959997E-4</v>
+        <v>1.276E-3</v>
       </c>
       <c r="J135" t="s">
         <v>878</v>
@@ -10544,7 +10544,7 @@
         <v>601</v>
       </c>
       <c r="C136">
-        <v>3.3739499450250002E-4</v>
+        <v>2.6689999999999998E-4</v>
       </c>
       <c r="D136" t="s">
         <v>468</v>
@@ -10556,7 +10556,7 @@
         <v>601</v>
       </c>
       <c r="I136">
-        <v>6.0272831106299998E-4</v>
+        <v>6.3900000000000003E-4</v>
       </c>
       <c r="J136" t="s">
         <v>878</v>
@@ -10570,7 +10570,7 @@
         <v>602</v>
       </c>
       <c r="C137">
-        <v>3.579793843728E-4</v>
+        <v>3.5851999999999998E-4</v>
       </c>
       <c r="D137" t="s">
         <v>468</v>
@@ -10582,7 +10582,7 @@
         <v>602</v>
       </c>
       <c r="I137">
-        <v>6.8079628422070004E-4</v>
+        <v>9.9200000000000004E-4</v>
       </c>
       <c r="J137" t="s">
         <v>878</v>
@@ -10596,7 +10596,7 @@
         <v>603</v>
       </c>
       <c r="C138">
-        <v>3.7893636832319998E-4</v>
+        <v>3.9745999999999998E-4</v>
       </c>
       <c r="D138" t="s">
         <v>468</v>
@@ -10608,7 +10608,7 @@
         <v>603</v>
       </c>
       <c r="I138">
-        <v>7.1899286459010004E-4</v>
+        <v>5.9699999999999998E-4</v>
       </c>
       <c r="J138" t="s">
         <v>878</v>
@@ -10622,7 +10622,7 @@
         <v>604</v>
       </c>
       <c r="C139">
-        <v>3.2856328647239998E-4</v>
+        <v>3.6624999999999998E-4</v>
       </c>
       <c r="D139" t="s">
         <v>468</v>
@@ -10634,7 +10634,7 @@
         <v>604</v>
       </c>
       <c r="I139">
-        <v>1.0435906295873001E-3</v>
+        <v>5.9699999999999998E-4</v>
       </c>
       <c r="J139" t="s">
         <v>878</v>
@@ -10648,7 +10648,7 @@
         <v>605</v>
       </c>
       <c r="C140">
-        <v>2.8446943848109998E-4</v>
+        <v>3.5744999999999999E-4</v>
       </c>
       <c r="D140" t="s">
         <v>468</v>
@@ -10660,7 +10660,7 @@
         <v>605</v>
       </c>
       <c r="I140">
-        <v>7.4109320902120005E-4</v>
+        <v>6.8999999999999997E-4</v>
       </c>
       <c r="J140" t="s">
         <v>878</v>
@@ -10674,7 +10674,7 @@
         <v>606</v>
       </c>
       <c r="C141">
-        <v>2.2022439241810001E-4</v>
+        <v>2.3026000000000001E-4</v>
       </c>
       <c r="D141" t="s">
         <v>468</v>
@@ -10686,7 +10686,7 @@
         <v>606</v>
       </c>
       <c r="I141">
-        <v>6.3872113151129998E-4</v>
+        <v>8.4099999999999995E-4</v>
       </c>
       <c r="J141" t="s">
         <v>878</v>
@@ -10700,7 +10700,7 @@
         <v>607</v>
       </c>
       <c r="C142">
-        <v>1.509276257396E-4</v>
+        <v>9.043E-5</v>
       </c>
       <c r="D142" t="s">
         <v>468</v>
@@ -10712,7 +10712,7 @@
         <v>607</v>
       </c>
       <c r="I142">
-        <v>5.6396858941319997E-4</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J142" t="s">
         <v>878</v>
@@ -10738,7 +10738,7 @@
         <v>608</v>
       </c>
       <c r="I143">
-        <v>3.6111657031410001E-4</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="J143" t="s">
         <v>878</v>
@@ -10764,7 +10764,7 @@
         <v>609</v>
       </c>
       <c r="I144">
-        <v>2.865521919919E-4</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J144" t="s">
         <v>878</v>
@@ -10790,7 +10790,7 @@
         <v>610</v>
       </c>
       <c r="I145">
-        <v>2.630881330735E-4</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J145" t="s">
         <v>878</v>
@@ -10816,7 +10816,7 @@
         <v>611</v>
       </c>
       <c r="I146">
-        <v>2.3320697918060001E-4</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="J146" t="s">
         <v>878</v>
@@ -10842,7 +10842,7 @@
         <v>612</v>
       </c>
       <c r="I147">
-        <v>2.2751617363310001E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="J147" t="s">
         <v>878</v>
@@ -10856,7 +10856,7 @@
         <v>613</v>
       </c>
       <c r="C148">
-        <v>1.240427109196147E-4</v>
+        <v>1.5199999999999998E-6</v>
       </c>
       <c r="D148" t="s">
         <v>468</v>
@@ -10868,7 +10868,7 @@
         <v>613</v>
       </c>
       <c r="I148">
-        <v>2.2156115936920281E-2</v>
+        <v>1.1948E-2</v>
       </c>
       <c r="J148" t="s">
         <v>878</v>
@@ -10882,7 +10882,7 @@
         <v>614</v>
       </c>
       <c r="C149">
-        <v>4.1645855751867621E-3</v>
+        <v>4.3137999999999996E-3</v>
       </c>
       <c r="D149" t="s">
         <v>468</v>
@@ -10894,7 +10894,7 @@
         <v>614</v>
       </c>
       <c r="I149">
-        <v>2.5997674760212014E-3</v>
+        <v>8.7299999999999997E-4</v>
       </c>
       <c r="J149" t="s">
         <v>878</v>
@@ -10908,7 +10908,7 @@
         <v>615</v>
       </c>
       <c r="C150">
-        <v>6.0210065086631001E-3</v>
+        <v>6.1849000000000001E-3</v>
       </c>
       <c r="D150" t="s">
         <v>468</v>
@@ -10920,7 +10920,7 @@
         <v>615</v>
       </c>
       <c r="I150">
-        <v>2.1257837209344129E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="J150" t="s">
         <v>878</v>
@@ -10934,7 +10934,7 @@
         <v>616</v>
       </c>
       <c r="C151">
-        <v>7.0277147686374003E-3</v>
+        <v>7.1948300000000001E-3</v>
       </c>
       <c r="D151" t="s">
         <v>468</v>
@@ -10946,7 +10946,7 @@
         <v>616</v>
       </c>
       <c r="I151">
-        <v>3.2939685737143507E-3</v>
+        <v>2.0249999999999999E-3</v>
       </c>
       <c r="J151" t="s">
         <v>878</v>
@@ -10960,7 +10960,7 @@
         <v>617</v>
       </c>
       <c r="C152">
-        <v>5.2096356494443302E-2</v>
+        <v>5.332191E-2</v>
       </c>
       <c r="D152" t="s">
         <v>468</v>
@@ -10972,7 +10972,7 @@
         <v>617</v>
       </c>
       <c r="I152">
-        <v>4.1576873514006699E-2</v>
+        <v>5.0719E-2</v>
       </c>
       <c r="J152" t="s">
         <v>878</v>
@@ -10986,7 +10986,7 @@
         <v>618</v>
       </c>
       <c r="C153">
-        <v>5.4657815505122715E-3</v>
+        <v>5.3992299999999997E-3</v>
       </c>
       <c r="D153" t="s">
         <v>468</v>
@@ -10998,7 +10998,7 @@
         <v>618</v>
       </c>
       <c r="I153">
-        <v>6.2258292407006239E-3</v>
+        <v>6.9210000000000001E-3</v>
       </c>
       <c r="J153" t="s">
         <v>878</v>
@@ -11012,7 +11012,7 @@
         <v>619</v>
       </c>
       <c r="C154">
-        <v>4.1113594872371553E-3</v>
+        <v>3.8220699999999999E-3</v>
       </c>
       <c r="D154" t="s">
         <v>468</v>
@@ -11024,7 +11024,7 @@
         <v>619</v>
       </c>
       <c r="I154">
-        <v>4.5581624672944281E-3</v>
+        <v>4.2379999999999996E-3</v>
       </c>
       <c r="J154" t="s">
         <v>878</v>
@@ -11038,7 +11038,7 @@
         <v>620</v>
       </c>
       <c r="C155">
-        <v>1.2138124274447466E-3</v>
+        <v>1.12035E-3</v>
       </c>
       <c r="D155" t="s">
         <v>468</v>
@@ -11050,7 +11050,7 @@
         <v>620</v>
       </c>
       <c r="I155">
-        <v>1.9128837575349673E-2</v>
+        <v>1.4425E-2</v>
       </c>
       <c r="J155" t="s">
         <v>878</v>
@@ -11076,7 +11076,7 @@
         <v>621</v>
       </c>
       <c r="I156">
-        <v>1.623489452787E-4</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>878</v>
@@ -11102,7 +11102,7 @@
         <v>622</v>
       </c>
       <c r="I157">
-        <v>1.422118612391E-4</v>
+        <v>6.9999999999999999E-6</v>
       </c>
       <c r="J157" t="s">
         <v>878</v>
@@ -11128,7 +11128,7 @@
         <v>623</v>
       </c>
       <c r="I158">
-        <v>1.1263053062969999E-4</v>
+        <v>6.9999999999999999E-6</v>
       </c>
       <c r="J158" t="s">
         <v>878</v>
@@ -11154,7 +11154,7 @@
         <v>624</v>
       </c>
       <c r="I159">
-        <v>1.014822570671E-4</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>878</v>
@@ -11180,7 +11180,7 @@
         <v>625</v>
       </c>
       <c r="I160">
-        <v>7.9000707609506399E-5</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>878</v>
@@ -11206,7 +11206,7 @@
         <v>626</v>
       </c>
       <c r="I161">
-        <v>7.2847687756153707E-5</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>878</v>
@@ -11232,7 +11232,7 @@
         <v>627</v>
       </c>
       <c r="I162">
-        <v>6.4717503815549701E-5</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
         <v>878</v>
@@ -11246,7 +11246,7 @@
         <v>628</v>
       </c>
       <c r="C163">
-        <v>1.3307422764309999E-4</v>
+        <v>2.3144999999999999E-4</v>
       </c>
       <c r="D163" t="s">
         <v>468</v>
@@ -11258,7 +11258,7 @@
         <v>628</v>
       </c>
       <c r="I163">
-        <v>6.3584973417150995E-5</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
         <v>878</v>
@@ -11272,7 +11272,7 @@
         <v>629</v>
       </c>
       <c r="C164">
-        <v>2.2422056628799999E-4</v>
+        <v>3.4720999999999998E-4</v>
       </c>
       <c r="D164" t="s">
         <v>468</v>
@@ -11284,7 +11284,7 @@
         <v>629</v>
       </c>
       <c r="I164">
-        <v>4.2998431684571198E-5</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
         <v>878</v>
@@ -11298,7 +11298,7 @@
         <v>630</v>
       </c>
       <c r="C165">
-        <v>2.6907925575350001E-4</v>
+        <v>3.9805E-4</v>
       </c>
       <c r="D165" t="s">
         <v>468</v>
@@ -11310,7 +11310,7 @@
         <v>630</v>
       </c>
       <c r="I165">
-        <v>5.9494167886486102E-5</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
         <v>878</v>
@@ -11324,7 +11324,7 @@
         <v>631</v>
       </c>
       <c r="C166">
-        <v>2.7794863263560002E-4</v>
+        <v>4.1060000000000001E-4</v>
       </c>
       <c r="D166" t="s">
         <v>468</v>
@@ -11336,7 +11336,7 @@
         <v>631</v>
       </c>
       <c r="I166">
-        <v>9.1299577391107603E-5</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J166" t="s">
         <v>878</v>
@@ -11350,7 +11350,7 @@
         <v>632</v>
       </c>
       <c r="C167">
-        <v>2.845210284307E-4</v>
+        <v>4.2273000000000001E-4</v>
       </c>
       <c r="D167" t="s">
         <v>468</v>
@@ -11362,7 +11362,7 @@
         <v>632</v>
       </c>
       <c r="I167">
-        <v>1.4056780984980001E-4</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="J167" t="s">
         <v>878</v>
@@ -11376,7 +11376,7 @@
         <v>633</v>
       </c>
       <c r="C168">
-        <v>2.6123348898159999E-4</v>
+        <v>4.0572999999999998E-4</v>
       </c>
       <c r="D168" t="s">
         <v>468</v>
@@ -11388,7 +11388,7 @@
         <v>633</v>
       </c>
       <c r="I168">
-        <v>2.2751617363310001E-4</v>
+        <v>9.4200000000000002E-4</v>
       </c>
       <c r="J168" t="s">
         <v>878</v>
@@ -11402,7 +11402,7 @@
         <v>634</v>
       </c>
       <c r="C169">
-        <v>2.9298341793300003E-4</v>
+        <v>3.4362999999999999E-4</v>
       </c>
       <c r="D169" t="s">
         <v>468</v>
@@ -11414,7 +11414,7 @@
         <v>634</v>
       </c>
       <c r="I169">
-        <v>2.8963495055649998E-4</v>
+        <v>1.1360000000000001E-3</v>
       </c>
       <c r="J169" t="s">
         <v>878</v>
@@ -11428,7 +11428,7 @@
         <v>635</v>
       </c>
       <c r="C170">
-        <v>3.3311712313030003E-4</v>
+        <v>2.2295E-4</v>
       </c>
       <c r="D170" t="s">
         <v>468</v>
@@ -11440,7 +11440,7 @@
         <v>635</v>
       </c>
       <c r="I170">
-        <v>4.6133465345919998E-4</v>
+        <v>1.756E-3</v>
       </c>
       <c r="J170" t="s">
         <v>878</v>
@@ -11454,7 +11454,7 @@
         <v>636</v>
       </c>
       <c r="C171">
-        <v>3.5248873974210002E-4</v>
+        <v>2.8066000000000001E-4</v>
       </c>
       <c r="D171" t="s">
         <v>468</v>
@@ -11466,7 +11466,7 @@
         <v>636</v>
       </c>
       <c r="I171">
-        <v>4.2896908703330002E-4</v>
+        <v>1.4859999999999999E-3</v>
       </c>
       <c r="J171" t="s">
         <v>878</v>
@@ -11480,7 +11480,7 @@
         <v>637</v>
       </c>
       <c r="C172">
-        <v>3.0706256083149998E-4</v>
+        <v>2.2447999999999999E-4</v>
       </c>
       <c r="D172" t="s">
         <v>468</v>
@@ -11492,7 +11492,7 @@
         <v>637</v>
       </c>
       <c r="I172">
-        <v>5.4018998090909999E-4</v>
+        <v>1.0859999999999999E-3</v>
       </c>
       <c r="J172" t="s">
         <v>878</v>
@@ -11506,7 +11506,7 @@
         <v>638</v>
       </c>
       <c r="C173">
-        <v>2.6309973493429998E-4</v>
+        <v>2.9019000000000001E-4</v>
       </c>
       <c r="D173" t="s">
         <v>468</v>
@@ -11518,7 +11518,7 @@
         <v>638</v>
       </c>
       <c r="I173">
-        <v>5.1319657948160002E-4</v>
+        <v>1.1360000000000001E-3</v>
       </c>
       <c r="J173" t="s">
         <v>878</v>
@@ -11532,7 +11532,7 @@
         <v>639</v>
       </c>
       <c r="C174">
-        <v>2.261801654828E-4</v>
+        <v>2.7994000000000001E-4</v>
       </c>
       <c r="D174" t="s">
         <v>468</v>
@@ -11544,7 +11544,7 @@
         <v>639</v>
       </c>
       <c r="I174">
-        <v>2.8088525056959999E-4</v>
+        <v>1.0430000000000001E-3</v>
       </c>
       <c r="J174" t="s">
         <v>878</v>
@@ -11570,7 +11570,7 @@
         <v>640</v>
       </c>
       <c r="I175">
-        <v>1.5033901062249999E-4</v>
+        <v>4.6700000000000002E-4</v>
       </c>
       <c r="J175" t="s">
         <v>878</v>
@@ -11596,7 +11596,7 @@
         <v>641</v>
       </c>
       <c r="I176">
-        <v>1.460977247874E-4</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J176" t="s">
         <v>878</v>
@@ -11622,7 +11622,7 @@
         <v>642</v>
       </c>
       <c r="I177">
-        <v>1.154797992764E-4</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="J177" t="s">
         <v>878</v>
@@ -11648,7 +11648,7 @@
         <v>643</v>
       </c>
       <c r="I178">
-        <v>8.5686876882315301E-5</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J178" t="s">
         <v>878</v>
@@ -11674,7 +11674,7 @@
         <v>644</v>
       </c>
       <c r="I179">
-        <v>7.3023932085692397E-5</v>
+        <v>3.4E-5</v>
       </c>
       <c r="J179" t="s">
         <v>878</v>
@@ -11700,7 +11700,7 @@
         <v>645</v>
       </c>
       <c r="I180">
-        <v>1.7246737074579999E-4</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
         <v>878</v>
@@ -11726,7 +11726,7 @@
         <v>646</v>
       </c>
       <c r="I181">
-        <v>2.197056855045E-4</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>878</v>
@@ -11752,7 +11752,7 @@
         <v>647</v>
       </c>
       <c r="I182">
-        <v>2.6019708069159998E-4</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
         <v>878</v>
@@ -11778,7 +11778,7 @@
         <v>648</v>
       </c>
       <c r="I183">
-        <v>1.862713035945E-4</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
         <v>878</v>
@@ -11804,7 +11804,7 @@
         <v>649</v>
       </c>
       <c r="I184">
-        <v>2.6893432452919998E-4</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>878</v>
@@ -11830,7 +11830,7 @@
         <v>650</v>
       </c>
       <c r="I185">
-        <v>3.0492316149939997E-4</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
         <v>878</v>
@@ -11856,7 +11856,7 @@
         <v>651</v>
       </c>
       <c r="I186">
-        <v>3.3807375965590002E-4</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>878</v>
@@ -11870,7 +11870,7 @@
         <v>652</v>
       </c>
       <c r="C187">
-        <v>1.62988209501E-4</v>
+        <v>1.183E-5</v>
       </c>
       <c r="D187" t="s">
         <v>468</v>
@@ -11882,7 +11882,7 @@
         <v>652</v>
       </c>
       <c r="I187">
-        <v>2.6019708069159998E-4</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>878</v>
@@ -11896,7 +11896,7 @@
         <v>653</v>
       </c>
       <c r="C188">
-        <v>2.6739725962059998E-4</v>
+        <v>1.9263E-4</v>
       </c>
       <c r="D188" t="s">
         <v>468</v>
@@ -11908,7 +11908,7 @@
         <v>653</v>
       </c>
       <c r="I188">
-        <v>1.929351301944E-4</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>878</v>
@@ -11922,7 +11922,7 @@
         <v>654</v>
       </c>
       <c r="C189">
-        <v>3.1945970759710002E-4</v>
+        <v>3.6917999999999999E-4</v>
       </c>
       <c r="D189" t="s">
         <v>468</v>
@@ -11934,7 +11934,7 @@
         <v>654</v>
       </c>
       <c r="I189">
-        <v>4.1029633171870002E-4</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
         <v>878</v>
@@ -11948,7 +11948,7 @@
         <v>655</v>
       </c>
       <c r="C190">
-        <v>3.5129234424539999E-4</v>
+        <v>4.1661999999999998E-4</v>
       </c>
       <c r="D190" t="s">
         <v>468</v>
@@ -11960,7 +11960,7 @@
         <v>655</v>
       </c>
       <c r="I190">
-        <v>3.9870049613240002E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J190" t="s">
         <v>878</v>
@@ -11974,7 +11974,7 @@
         <v>656</v>
       </c>
       <c r="C191">
-        <v>3.7550932167450002E-4</v>
+        <v>4.4248999999999997E-4</v>
       </c>
       <c r="D191" t="s">
         <v>468</v>
@@ -11986,7 +11986,7 @@
         <v>656</v>
       </c>
       <c r="I191">
-        <v>4.0199099263409999E-4</v>
+        <v>2.9E-5</v>
       </c>
       <c r="J191" t="s">
         <v>878</v>
@@ -12000,7 +12000,7 @@
         <v>657</v>
       </c>
       <c r="C192">
-        <v>3.9071934902269999E-4</v>
+        <v>4.4387000000000002E-4</v>
       </c>
       <c r="D192" t="s">
         <v>468</v>
@@ -12012,7 +12012,7 @@
         <v>657</v>
       </c>
       <c r="I192">
-        <v>3.9379849608269998E-4</v>
+        <v>2.9E-5</v>
       </c>
       <c r="J192" t="s">
         <v>878</v>
@@ -12026,7 +12026,7 @@
         <v>658</v>
       </c>
       <c r="C193">
-        <v>4.2060221313330003E-4</v>
+        <v>4.4499999999999997E-4</v>
       </c>
       <c r="D193" t="s">
         <v>468</v>
@@ -12038,7 +12038,7 @@
         <v>658</v>
       </c>
       <c r="I193">
-        <v>4.295435991272E-4</v>
+        <v>5.7000000000000003E-5</v>
       </c>
       <c r="J193" t="s">
         <v>878</v>
@@ -12052,7 +12052,7 @@
         <v>659</v>
       </c>
       <c r="C194">
-        <v>3.8841336016659999E-4</v>
+        <v>4.4356000000000002E-4</v>
       </c>
       <c r="D194" t="s">
         <v>468</v>
@@ -12064,7 +12064,7 @@
         <v>659</v>
       </c>
       <c r="I194">
-        <v>5.502972260635E-4</v>
+        <v>1.8799999999999999E-4</v>
       </c>
       <c r="J194" t="s">
         <v>878</v>
@@ -12078,7 +12078,7 @@
         <v>660</v>
       </c>
       <c r="C195">
-        <v>4.0771209573870002E-4</v>
+        <v>4.3414000000000001E-4</v>
       </c>
       <c r="D195" t="s">
         <v>468</v>
@@ -12090,7 +12090,7 @@
         <v>660</v>
       </c>
       <c r="I195">
-        <v>4.5772736153650001E-4</v>
+        <v>2.7E-4</v>
       </c>
       <c r="J195" t="s">
         <v>878</v>
@@ -12104,7 +12104,7 @@
         <v>661</v>
       </c>
       <c r="C196">
-        <v>3.5272949284000002E-4</v>
+        <v>3.6612999999999999E-4</v>
       </c>
       <c r="D196" t="s">
         <v>468</v>
@@ -12116,7 +12116,7 @@
         <v>661</v>
       </c>
       <c r="I196">
-        <v>4.6617378891100001E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="J196" t="s">
         <v>878</v>
@@ -12130,7 +12130,7 @@
         <v>662</v>
       </c>
       <c r="C197">
-        <v>3.351233989461E-4</v>
+        <v>3.3041E-4</v>
       </c>
       <c r="D197" t="s">
         <v>468</v>
@@ -12142,7 +12142,7 @@
         <v>662</v>
       </c>
       <c r="I197">
-        <v>4.3705899786619998E-4</v>
+        <v>6.3900000000000003E-4</v>
       </c>
       <c r="J197" t="s">
         <v>878</v>
@@ -12156,7 +12156,7 @@
         <v>663</v>
       </c>
       <c r="C198">
-        <v>2.8140352147930001E-4</v>
+        <v>2.9711000000000001E-4</v>
       </c>
       <c r="D198" t="s">
         <v>468</v>
@@ -12168,7 +12168,7 @@
         <v>663</v>
       </c>
       <c r="I198">
-        <v>2.8349138583679998E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="J198" t="s">
         <v>878</v>
@@ -12194,7 +12194,7 @@
         <v>664</v>
       </c>
       <c r="I199">
-        <v>1.6812487370959999E-4</v>
+        <v>2.99E-4</v>
       </c>
       <c r="J199" t="s">
         <v>878</v>
@@ -12220,7 +12220,7 @@
         <v>665</v>
       </c>
       <c r="I200">
-        <v>1.3678107072270001E-4</v>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="J200" t="s">
         <v>878</v>
@@ -12246,7 +12246,7 @@
         <v>666</v>
       </c>
       <c r="I201">
-        <v>1.3306295668769999E-4</v>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="J201" t="s">
         <v>878</v>
@@ -12272,7 +12272,7 @@
         <v>667</v>
       </c>
       <c r="I202">
-        <v>1.2812558669469999E-4</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J202" t="s">
         <v>878</v>
@@ -12298,7 +12298,7 @@
         <v>668</v>
       </c>
       <c r="I203">
-        <v>1.079865699377E-4</v>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="J203" t="s">
         <v>878</v>
@@ -12324,7 +12324,7 @@
         <v>669</v>
       </c>
       <c r="I204">
-        <v>3.0173266115629999E-4</v>
+        <v>6.9999999999999999E-6</v>
       </c>
       <c r="J204" t="s">
         <v>878</v>
@@ -12350,7 +12350,7 @@
         <v>670</v>
       </c>
       <c r="I205">
-        <v>2.8349138583679998E-4</v>
+        <v>1.2E-5</v>
       </c>
       <c r="J205" t="s">
         <v>878</v>
@@ -12376,7 +12376,7 @@
         <v>671</v>
       </c>
       <c r="I206">
-        <v>2.6267382112909999E-4</v>
+        <v>1.2E-5</v>
       </c>
       <c r="J206" t="s">
         <v>878</v>
@@ -12402,7 +12402,7 @@
         <v>672</v>
       </c>
       <c r="I207">
-        <v>1.9091957353680001E-4</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>878</v>
@@ -12428,7 +12428,7 @@
         <v>673</v>
       </c>
       <c r="I208">
-        <v>1.7529808615220001E-4</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>878</v>
@@ -12454,7 +12454,7 @@
         <v>674</v>
       </c>
       <c r="I209">
-        <v>1.8858589111660001E-4</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>878</v>
@@ -12480,7 +12480,7 @@
         <v>675</v>
       </c>
       <c r="I210">
-        <v>1.7529808615220001E-4</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>878</v>
@@ -12494,7 +12494,7 @@
         <v>676</v>
       </c>
       <c r="C211">
-        <v>1.410567487258E-4</v>
+        <v>2.0687E-4</v>
       </c>
       <c r="D211" t="s">
         <v>468</v>
@@ -12506,7 +12506,7 @@
         <v>676</v>
       </c>
       <c r="I211">
-        <v>1.540805267098E-4</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
         <v>878</v>
@@ -12520,7 +12520,7 @@
         <v>677</v>
       </c>
       <c r="C212">
-        <v>2.5416157145279999E-4</v>
+        <v>3.1437000000000001E-4</v>
       </c>
       <c r="D212" t="s">
         <v>468</v>
@@ -12532,7 +12532,7 @@
         <v>677</v>
       </c>
       <c r="I212">
-        <v>1.3306295668769999E-4</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
         <v>878</v>
@@ -12546,7 +12546,7 @@
         <v>678</v>
       </c>
       <c r="C213">
-        <v>3.3634763663780001E-4</v>
+        <v>3.6146000000000003E-4</v>
       </c>
       <c r="D213" t="s">
         <v>468</v>
@@ -12558,7 +12558,7 @@
         <v>678</v>
       </c>
       <c r="I213">
-        <v>1.9564453683790001E-4</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
         <v>878</v>
@@ -12572,7 +12572,7 @@
         <v>679</v>
       </c>
       <c r="C214">
-        <v>3.6730242525570003E-4</v>
+        <v>3.7441999999999998E-4</v>
       </c>
       <c r="D214" t="s">
         <v>468</v>
@@ -12584,7 +12584,7 @@
         <v>679</v>
       </c>
       <c r="I214">
-        <v>2.8611359177420001E-4</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>878</v>
@@ -12598,7 +12598,7 @@
         <v>680</v>
       </c>
       <c r="C215">
-        <v>3.6957238303590001E-4</v>
+        <v>3.613E-4</v>
       </c>
       <c r="D215" t="s">
         <v>468</v>
@@ -12610,7 +12610,7 @@
         <v>680</v>
       </c>
       <c r="I215">
-        <v>2.9811371750970001E-4</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>878</v>
@@ -12624,7 +12624,7 @@
         <v>681</v>
       </c>
       <c r="C216">
-        <v>3.6793460685970002E-4</v>
+        <v>3.7487000000000002E-4</v>
       </c>
       <c r="D216" t="s">
         <v>468</v>
@@ -12636,7 +12636,7 @@
         <v>681</v>
       </c>
       <c r="I216">
-        <v>3.3416919295940002E-4</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>878</v>
@@ -12650,7 +12650,7 @@
         <v>682</v>
       </c>
       <c r="C217">
-        <v>3.5201951686770003E-4</v>
+        <v>3.8652000000000001E-4</v>
       </c>
       <c r="D217" t="s">
         <v>468</v>
@@ -12662,7 +12662,7 @@
         <v>682</v>
       </c>
       <c r="I217">
-        <v>3.8358211900509998E-4</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
         <v>878</v>
@@ -12676,7 +12676,7 @@
         <v>683</v>
       </c>
       <c r="C218">
-        <v>3.882880702892E-4</v>
+        <v>3.8813999999999998E-4</v>
       </c>
       <c r="D218" t="s">
         <v>468</v>
@@ -12688,7 +12688,7 @@
         <v>683</v>
       </c>
       <c r="I218">
-        <v>4.5354267942650001E-4</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
         <v>878</v>
@@ -12702,7 +12702,7 @@
         <v>684</v>
       </c>
       <c r="C219">
-        <v>3.7388628548390001E-4</v>
+        <v>3.2390000000000001E-4</v>
       </c>
       <c r="D219" t="s">
         <v>468</v>
@@ -12714,7 +12714,7 @@
         <v>684</v>
       </c>
       <c r="I219">
-        <v>4.4938358044589998E-4</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
         <v>878</v>
@@ -12728,7 +12728,7 @@
         <v>685</v>
       </c>
       <c r="C220">
-        <v>3.4769660665060002E-4</v>
+        <v>2.3557E-4</v>
       </c>
       <c r="D220" t="s">
         <v>468</v>
@@ -12740,7 +12740,7 @@
         <v>685</v>
       </c>
       <c r="I220">
-        <v>5.2296529017549997E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J220" t="s">
         <v>878</v>
@@ -12754,7 +12754,7 @@
         <v>686</v>
       </c>
       <c r="C221">
-        <v>2.6130227558100001E-4</v>
+        <v>1.0686E-4</v>
       </c>
       <c r="D221" t="s">
         <v>468</v>
@@ -12766,7 +12766,7 @@
         <v>686</v>
       </c>
       <c r="I221">
-        <v>4.6133465345919998E-4</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
         <v>878</v>
@@ -12780,7 +12780,7 @@
         <v>687</v>
       </c>
       <c r="C222">
-        <v>1.738204611303E-4</v>
+        <v>7.9540000000000001E-5</v>
       </c>
       <c r="D222" t="s">
         <v>468</v>
@@ -12792,7 +12792,7 @@
         <v>687</v>
       </c>
       <c r="I222">
-        <v>3.6111657031410001E-4</v>
+        <v>1.2E-5</v>
       </c>
       <c r="J222" t="s">
         <v>878</v>
@@ -12806,7 +12806,7 @@
         <v>688</v>
       </c>
       <c r="C223">
-        <v>2.2109978378431001E-8</v>
+        <v>2E-8</v>
       </c>
       <c r="D223" t="s">
         <v>468</v>
@@ -12818,7 +12818,7 @@
         <v>688</v>
       </c>
       <c r="I223">
-        <v>3.2026727373880002E-4</v>
+        <v>1.7E-5</v>
       </c>
       <c r="J223" t="s">
         <v>878</v>
@@ -12844,7 +12844,7 @@
         <v>689</v>
       </c>
       <c r="I224">
-        <v>2.9007714124439999E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J224" t="s">
         <v>878</v>
@@ -12870,7 +12870,7 @@
         <v>690</v>
       </c>
       <c r="I225">
-        <v>2.028771545633E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J225" t="s">
         <v>878</v>
@@ -12896,7 +12896,7 @@
         <v>691</v>
       </c>
       <c r="I226">
-        <v>1.644612658331E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="J226" t="s">
         <v>878</v>
@@ -12922,7 +12922,7 @@
         <v>692</v>
       </c>
       <c r="I227">
-        <v>1.540805267098E-4</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J227" t="s">
         <v>878</v>
@@ -12948,7 +12948,7 @@
         <v>693</v>
       </c>
       <c r="I228">
-        <v>1.7529808615220001E-4</v>
+        <v>5.6800000000000004E-4</v>
       </c>
       <c r="J228" t="s">
         <v>878</v>
@@ -12974,7 +12974,7 @@
         <v>694</v>
       </c>
       <c r="I229">
-        <v>1.4029503927290001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="J229" t="s">
         <v>878</v>
@@ -13000,7 +13000,7 @@
         <v>695</v>
       </c>
       <c r="I230">
-        <v>1.107572964765E-4</v>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="J230" t="s">
         <v>878</v>
@@ -13026,7 +13026,7 @@
         <v>696</v>
       </c>
       <c r="I231">
-        <v>9.9735111995483505E-5</v>
+        <v>1.7E-5</v>
       </c>
       <c r="J231" t="s">
         <v>878</v>
@@ -13052,7 +13052,7 @@
         <v>697</v>
       </c>
       <c r="I232">
-        <v>7.4087370821580904E-5</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
         <v>878</v>
@@ -13078,7 +13078,7 @@
         <v>698</v>
       </c>
       <c r="I233">
-        <v>6.4717503815549701E-5</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
         <v>878</v>
@@ -13104,7 +13104,7 @@
         <v>699</v>
       </c>
       <c r="I234">
-        <v>5.84236046590445E-5</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
         <v>878</v>
@@ -13118,7 +13118,7 @@
         <v>700</v>
       </c>
       <c r="C235">
-        <v>1.8481157704859999E-4</v>
+        <v>2.5510000000000002E-4</v>
       </c>
       <c r="D235" t="s">
         <v>468</v>
@@ -13130,7 +13130,7 @@
         <v>700</v>
       </c>
       <c r="I235">
-        <v>5.03176453390059E-5</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
         <v>878</v>
@@ -13144,7 +13144,7 @@
         <v>701</v>
       </c>
       <c r="C236">
-        <v>2.877941241188E-4</v>
+        <v>3.5125E-4</v>
       </c>
       <c r="D236" t="s">
         <v>468</v>
@@ -13156,7 +13156,7 @@
         <v>701</v>
       </c>
       <c r="I236">
-        <v>2.74172855961049E-5</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
         <v>878</v>
@@ -13170,7 +13170,7 @@
         <v>702</v>
       </c>
       <c r="C237">
-        <v>3.3074726100330002E-4</v>
+        <v>3.9815E-4</v>
       </c>
       <c r="D237" t="s">
         <v>468</v>
@@ -13182,7 +13182,7 @@
         <v>702</v>
       </c>
       <c r="I237">
-        <v>6.8195620796311906E-5</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
         <v>878</v>
@@ -13196,7 +13196,7 @@
         <v>703</v>
       </c>
       <c r="C238">
-        <v>3.4428266221139998E-4</v>
+        <v>3.9164000000000001E-4</v>
       </c>
       <c r="D238" t="s">
         <v>468</v>
@@ -13208,7 +13208,7 @@
         <v>703</v>
       </c>
       <c r="I238">
-        <v>1.599571026913E-4</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="J238" t="s">
         <v>878</v>
@@ -13222,7 +13222,7 @@
         <v>704</v>
       </c>
       <c r="C239">
-        <v>3.5007793321079999E-4</v>
+        <v>3.8922000000000002E-4</v>
       </c>
       <c r="D239" t="s">
         <v>468</v>
@@ -13234,7 +13234,7 @@
         <v>704</v>
       </c>
       <c r="I239">
-        <v>1.647645133275E-4</v>
+        <v>7.2999999999999999E-5</v>
       </c>
       <c r="J239" t="s">
         <v>878</v>
@@ -13248,7 +13248,7 @@
         <v>705</v>
       </c>
       <c r="C240">
-        <v>3.4899454427029998E-4</v>
+        <v>3.9428E-4</v>
       </c>
       <c r="D240" t="s">
         <v>468</v>
@@ -13260,7 +13260,7 @@
         <v>705</v>
       </c>
       <c r="I240">
-        <v>2.0218078049969999E-4</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="J240" t="s">
         <v>878</v>
@@ -13274,7 +13274,7 @@
         <v>706</v>
       </c>
       <c r="C241">
-        <v>3.5837245065510002E-4</v>
+        <v>3.9615000000000001E-4</v>
       </c>
       <c r="D241" t="s">
         <v>468</v>
@@ -13286,7 +13286,7 @@
         <v>706</v>
       </c>
       <c r="I241">
-        <v>2.1207602740680001E-4</v>
+        <v>5.7000000000000003E-5</v>
       </c>
       <c r="J241" t="s">
         <v>878</v>
@@ -13300,7 +13300,7 @@
         <v>707</v>
       </c>
       <c r="C242">
-        <v>3.4898717427750002E-4</v>
+        <v>3.145E-4</v>
       </c>
       <c r="D242" t="s">
         <v>468</v>
@@ -13312,7 +13312,7 @@
         <v>707</v>
       </c>
       <c r="I242">
-        <v>2.4605911458189998E-4</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="J242" t="s">
         <v>878</v>
@@ -13326,7 +13326,7 @@
         <v>708</v>
       </c>
       <c r="C243">
-        <v>3.4824198611730002E-4</v>
+        <v>3.6708999999999998E-4</v>
       </c>
       <c r="D243" t="s">
         <v>468</v>
@@ -13338,7 +13338,7 @@
         <v>708</v>
       </c>
       <c r="I243">
-        <v>2.3744000678169999E-4</v>
+        <v>3.4E-5</v>
       </c>
       <c r="J243" t="s">
         <v>878</v>
@@ -13352,7 +13352,7 @@
         <v>709</v>
       </c>
       <c r="C244">
-        <v>3.095814605905E-4</v>
+        <v>2.4548000000000001E-4</v>
       </c>
       <c r="D244" t="s">
         <v>468</v>
@@ -13364,7 +13364,7 @@
         <v>709</v>
       </c>
       <c r="I244">
-        <v>2.4605911458189998E-4</v>
+        <v>1.1E-4</v>
       </c>
       <c r="J244" t="s">
         <v>878</v>
@@ -13378,7 +13378,7 @@
         <v>710</v>
       </c>
       <c r="C245">
-        <v>2.715293689131E-4</v>
+        <v>1.6873999999999999E-4</v>
       </c>
       <c r="D245" t="s">
         <v>468</v>
@@ -13390,7 +13390,7 @@
         <v>710</v>
       </c>
       <c r="I245">
-        <v>1.623489452787E-4</v>
+        <v>0</v>
       </c>
       <c r="J245" t="s">
         <v>878</v>
@@ -13404,7 +13404,7 @@
         <v>711</v>
       </c>
       <c r="C246">
-        <v>2.477570477159E-4</v>
+        <v>2.6277000000000001E-4</v>
       </c>
       <c r="D246" t="s">
         <v>468</v>
@@ -13416,7 +13416,7 @@
         <v>711</v>
       </c>
       <c r="I246">
-        <v>1.2786916464940001E-4</v>
+        <v>0</v>
       </c>
       <c r="J246" t="s">
         <v>878</v>
@@ -13430,7 +13430,7 @@
         <v>712</v>
       </c>
       <c r="C247">
-        <v>3.6768075155242699E-7</v>
+        <v>2.9999999999999999E-7</v>
       </c>
       <c r="D247" t="s">
         <v>468</v>
@@ -13442,7 +13442,7 @@
         <v>712</v>
       </c>
       <c r="I247">
-        <v>8.4514884281240298E-5</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
         <v>878</v>
@@ -13468,7 +13468,7 @@
         <v>713</v>
       </c>
       <c r="I248">
-        <v>7.3909418846107103E-5</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
         <v>878</v>
@@ -13494,7 +13494,7 @@
         <v>714</v>
       </c>
       <c r="I249">
-        <v>1.109903061404E-4</v>
+        <v>0</v>
       </c>
       <c r="J249" t="s">
         <v>878</v>
@@ -13520,7 +13520,7 @@
         <v>715</v>
       </c>
       <c r="I250">
-        <v>1.2633781377529999E-4</v>
+        <v>0</v>
       </c>
       <c r="J250" t="s">
         <v>878</v>
@@ -13546,7 +13546,7 @@
         <v>716</v>
       </c>
       <c r="I251">
-        <v>1.276130849566E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J251" t="s">
         <v>878</v>
@@ -13572,7 +13572,7 @@
         <v>717</v>
       </c>
       <c r="I252">
-        <v>2.9229484682630002E-4</v>
+        <v>1.2E-5</v>
       </c>
       <c r="J252" t="s">
         <v>878</v>
@@ -13598,7 +13598,7 @@
         <v>718</v>
       </c>
       <c r="I253">
-        <v>2.3512479016499999E-4</v>
+        <v>0</v>
       </c>
       <c r="J253" t="s">
         <v>878</v>
@@ -13624,7 +13624,7 @@
         <v>719</v>
       </c>
       <c r="I254">
-        <v>2.049758671974E-4</v>
+        <v>0</v>
       </c>
       <c r="J254" t="s">
         <v>878</v>
@@ -13650,7 +13650,7 @@
         <v>720</v>
       </c>
       <c r="I255">
-        <v>1.9327242929679999E-4</v>
+        <v>0</v>
       </c>
       <c r="J255" t="s">
         <v>878</v>
@@ -13676,7 +13676,7 @@
         <v>721</v>
       </c>
       <c r="I256">
-        <v>1.3866582292900001E-4</v>
+        <v>0</v>
       </c>
       <c r="J256" t="s">
         <v>878</v>
@@ -13702,7 +13702,7 @@
         <v>722</v>
       </c>
       <c r="I257">
-        <v>9.8437995394779696E-5</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
         <v>878</v>
@@ -13716,7 +13716,7 @@
         <v>723</v>
       </c>
       <c r="C258">
-        <v>8.1888808809003813E-9</v>
+        <v>0</v>
       </c>
       <c r="D258" t="s">
         <v>468</v>
@@ -13728,7 +13728,7 @@
         <v>723</v>
       </c>
       <c r="I258">
-        <v>9.5666260284484804E-5</v>
+        <v>0</v>
       </c>
       <c r="J258" t="s">
         <v>878</v>
@@ -13742,7 +13742,7 @@
         <v>724</v>
       </c>
       <c r="C259">
-        <v>1.1347250347849999E-4</v>
+        <v>4.2599999999999999E-6</v>
       </c>
       <c r="D259" t="s">
         <v>468</v>
@@ -13754,7 +13754,7 @@
         <v>724</v>
       </c>
       <c r="I259">
-        <v>1.188642008297E-4</v>
+        <v>0</v>
       </c>
       <c r="J259" t="s">
         <v>878</v>
@@ -13768,7 +13768,7 @@
         <v>725</v>
       </c>
       <c r="C260">
-        <v>1.713973712776E-4</v>
+        <v>3.9409999999999997E-5</v>
       </c>
       <c r="D260" t="s">
         <v>468</v>
@@ -13780,7 +13780,7 @@
         <v>725</v>
       </c>
       <c r="I260">
-        <v>2.516511556317E-4</v>
+        <v>1.7E-5</v>
       </c>
       <c r="J260" t="s">
         <v>878</v>
@@ -13794,7 +13794,7 @@
         <v>726</v>
       </c>
       <c r="C261">
-        <v>1.810733529265E-4</v>
+        <v>8.7100000000000003E-5</v>
       </c>
       <c r="D261" t="s">
         <v>468</v>
@@ -13806,7 +13806,7 @@
         <v>726</v>
       </c>
       <c r="I261">
-        <v>4.698252641998E-4</v>
+        <v>3.4E-5</v>
       </c>
       <c r="J261" t="s">
         <v>878</v>
@@ -13820,7 +13820,7 @@
         <v>727</v>
       </c>
       <c r="C262">
-        <v>2.0969103494100001E-4</v>
+        <v>1.8284E-4</v>
       </c>
       <c r="D262" t="s">
         <v>468</v>
@@ -13832,7 +13832,7 @@
         <v>727</v>
       </c>
       <c r="I262">
-        <v>6.3349389965529997E-4</v>
+        <v>2.9E-5</v>
       </c>
       <c r="J262" t="s">
         <v>878</v>
@@ -13846,7 +13846,7 @@
         <v>728</v>
       </c>
       <c r="C263">
-        <v>1.903570871812E-4</v>
+        <v>2.4799000000000002E-4</v>
       </c>
       <c r="D263" t="s">
         <v>468</v>
@@ -13858,7 +13858,7 @@
         <v>728</v>
       </c>
       <c r="I263">
-        <v>6.8549501505849996E-4</v>
+        <v>1.2E-5</v>
       </c>
       <c r="J263" t="s">
         <v>878</v>
@@ -13872,7 +13872,7 @@
         <v>729</v>
       </c>
       <c r="C264">
-        <v>2.1677032246250001E-4</v>
+        <v>2.9117999999999999E-4</v>
       </c>
       <c r="D264" t="s">
         <v>468</v>
@@ -13884,7 +13884,7 @@
         <v>729</v>
       </c>
       <c r="I264">
-        <v>6.8079628422070004E-4</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
         <v>878</v>
@@ -13898,7 +13898,7 @@
         <v>730</v>
       </c>
       <c r="C265">
-        <v>2.5630542046740001E-4</v>
+        <v>2.7557999999999999E-4</v>
       </c>
       <c r="D265" t="s">
         <v>468</v>
@@ -13910,7 +13910,7 @@
         <v>730</v>
       </c>
       <c r="I265">
-        <v>6.8079628422070004E-4</v>
+        <v>0</v>
       </c>
       <c r="J265" t="s">
         <v>878</v>
@@ -13924,7 +13924,7 @@
         <v>731</v>
       </c>
       <c r="C266">
-        <v>2.2737656097949999E-4</v>
+        <v>1.7998999999999999E-4</v>
       </c>
       <c r="D266" t="s">
         <v>468</v>
@@ -13936,7 +13936,7 @@
         <v>731</v>
       </c>
       <c r="I266">
-        <v>8.180240408468E-4</v>
+        <v>0</v>
       </c>
       <c r="J266" t="s">
         <v>878</v>
@@ -13950,7 +13950,7 @@
         <v>732</v>
       </c>
       <c r="C267">
-        <v>2.4631007246420002E-4</v>
+        <v>2.9357E-4</v>
       </c>
       <c r="D267" t="s">
         <v>468</v>
@@ -13962,7 +13962,7 @@
         <v>732</v>
       </c>
       <c r="I267">
-        <v>4.8774305301690002E-4</v>
+        <v>0</v>
       </c>
       <c r="J267" t="s">
         <v>878</v>
@@ -13976,7 +13976,7 @@
         <v>733</v>
       </c>
       <c r="C268">
-        <v>2.3680769509E-4</v>
+        <v>3.5327999999999998E-4</v>
       </c>
       <c r="D268" t="s">
         <v>468</v>
@@ -13988,7 +13988,7 @@
         <v>733</v>
       </c>
       <c r="I268">
-        <v>5.5915816038080003E-4</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
         <v>878</v>
@@ -14002,7 +14002,7 @@
         <v>734</v>
       </c>
       <c r="C269">
-        <v>2.2507794211620001E-4</v>
+        <v>2.4006E-4</v>
       </c>
       <c r="D269" t="s">
         <v>468</v>
@@ -14014,7 +14014,7 @@
         <v>734</v>
       </c>
       <c r="I269">
-        <v>4.4114181810729999E-4</v>
+        <v>0</v>
       </c>
       <c r="J269" t="s">
         <v>878</v>
@@ -14028,7 +14028,7 @@
         <v>735</v>
       </c>
       <c r="C270">
-        <v>2.183597842415E-4</v>
+        <v>2.0262000000000001E-4</v>
       </c>
       <c r="D270" t="s">
         <v>468</v>
@@ -14040,7 +14040,7 @@
         <v>735</v>
       </c>
       <c r="I270">
-        <v>3.0767571111120002E-4</v>
+        <v>0</v>
       </c>
       <c r="J270" t="s">
         <v>878</v>
@@ -14054,7 +14054,7 @@
         <v>736</v>
       </c>
       <c r="C271">
-        <v>1.2998456288670001E-4</v>
+        <v>1.5736E-4</v>
       </c>
       <c r="D271" t="s">
         <v>468</v>
@@ -14066,7 +14066,7 @@
         <v>736</v>
       </c>
       <c r="I271">
-        <v>2.6558315678000002E-4</v>
+        <v>0</v>
       </c>
       <c r="J271" t="s">
         <v>878</v>
@@ -14092,7 +14092,7 @@
         <v>737</v>
       </c>
       <c r="I272">
-        <v>2.3821510956620001E-4</v>
+        <v>0</v>
       </c>
       <c r="J272" t="s">
         <v>878</v>
@@ -14118,7 +14118,7 @@
         <v>738</v>
       </c>
       <c r="I273">
-        <v>2.347403900393E-4</v>
+        <v>0</v>
       </c>
       <c r="J273" t="s">
         <v>878</v>
@@ -14144,7 +14144,7 @@
         <v>739</v>
       </c>
       <c r="I274">
-        <v>2.324427843361E-4</v>
+        <v>0</v>
       </c>
       <c r="J274" t="s">
         <v>878</v>
@@ -14170,7 +14170,7 @@
         <v>740</v>
       </c>
       <c r="I275">
-        <v>2.2191870887690001E-4</v>
+        <v>0</v>
       </c>
       <c r="J275" t="s">
         <v>878</v>
@@ -14184,7 +14184,7 @@
         <v>741</v>
       </c>
       <c r="C276">
-        <v>5.8466930769035096E-3</v>
+        <v>5.4922199999999999E-3</v>
       </c>
       <c r="D276" t="s">
         <v>468</v>
@@ -14196,7 +14196,7 @@
         <v>741</v>
       </c>
       <c r="I276">
-        <v>2.5789236235988899E-2</v>
+        <v>1.2968E-2</v>
       </c>
       <c r="J276" t="s">
         <v>878</v>
@@ -14210,7 +14210,7 @@
         <v>742</v>
       </c>
       <c r="C277">
-        <v>1.0748847058592109E-2</v>
+        <v>1.009814E-2</v>
       </c>
       <c r="D277" t="s">
         <v>468</v>
@@ -14222,7 +14222,7 @@
         <v>742</v>
       </c>
       <c r="I277">
-        <v>2.5210445858488331E-3</v>
+        <v>1.2900000000000001E-3</v>
       </c>
       <c r="J277" t="s">
         <v>878</v>
@@ -14236,7 +14236,7 @@
         <v>743</v>
       </c>
       <c r="C278">
-        <v>1.4002711159938799E-2</v>
+        <v>1.347802E-2</v>
       </c>
       <c r="D278" t="s">
         <v>468</v>
@@ -14248,7 +14248,7 @@
         <v>743</v>
       </c>
       <c r="I278">
-        <v>3.4587769934999765E-3</v>
+        <v>3.7380000000000004E-3</v>
       </c>
       <c r="J278" t="s">
         <v>878</v>
@@ -14262,7 +14262,7 @@
         <v>744</v>
       </c>
       <c r="C279">
-        <v>1.60687658061902E-2</v>
+        <v>1.546841E-2</v>
       </c>
       <c r="D279" t="s">
         <v>468</v>
@@ -14274,7 +14274,7 @@
         <v>744</v>
       </c>
       <c r="I279">
-        <v>4.7237775586356449E-3</v>
+        <v>5.1619999999999999E-3</v>
       </c>
       <c r="J279" t="s">
         <v>878</v>
@@ -14288,7 +14288,7 @@
         <v>745</v>
       </c>
       <c r="C280">
-        <v>0.1185532872510902</v>
+        <v>0.11937407</v>
       </c>
       <c r="D280" t="s">
         <v>468</v>
@@ -14300,7 +14300,7 @@
         <v>745</v>
       </c>
       <c r="I280">
-        <v>5.1967336103041384E-2</v>
+        <v>6.6827999999999999E-2</v>
       </c>
       <c r="J280" t="s">
         <v>878</v>
@@ -14314,7 +14314,7 @@
         <v>746</v>
       </c>
       <c r="C281">
-        <v>1.29147921304925E-2</v>
+        <v>1.2819479999999999E-2</v>
       </c>
       <c r="D281" t="s">
         <v>468</v>
@@ -14326,7 +14326,7 @@
         <v>746</v>
       </c>
       <c r="I281">
-        <v>8.0203319366745351E-3</v>
+        <v>1.1081000000000001E-2</v>
       </c>
       <c r="J281" t="s">
         <v>878</v>
@@ -14340,7 +14340,7 @@
         <v>747</v>
       </c>
       <c r="C282">
-        <v>1.0459801673474533E-2</v>
+        <v>1.008598E-2</v>
       </c>
       <c r="D282" t="s">
         <v>468</v>
@@ -14352,7 +14352,7 @@
         <v>747</v>
       </c>
       <c r="I282">
-        <v>6.734847020230173E-3</v>
+        <v>8.6879999999999995E-3</v>
       </c>
       <c r="J282" t="s">
         <v>878</v>
@@ -14366,7 +14366,7 @@
         <v>748</v>
       </c>
       <c r="C283">
-        <v>6.8259178148645525E-3</v>
+        <v>6.7326900000000004E-3</v>
       </c>
       <c r="D283" t="s">
         <v>468</v>
@@ -14378,7 +14378,7 @@
         <v>748</v>
       </c>
       <c r="I283">
-        <v>2.3385858100249408E-2</v>
+        <v>1.8582000000000001E-2</v>
       </c>
       <c r="J283" t="s">
         <v>878</v>
@@ -14404,7 +14404,7 @@
         <v>749</v>
       </c>
       <c r="I284">
-        <v>1.1239523015429999E-4</v>
+        <v>1.7E-5</v>
       </c>
       <c r="J284" t="s">
         <v>878</v>
@@ -14430,7 +14430,7 @@
         <v>750</v>
       </c>
       <c r="I285">
-        <v>1.1122364237689999E-4</v>
+        <v>6.9999999999999999E-6</v>
       </c>
       <c r="J285" t="s">
         <v>878</v>
@@ -14456,7 +14456,7 @@
         <v>751</v>
       </c>
       <c r="I286">
-        <v>9.5666260284484804E-5</v>
+        <v>0</v>
       </c>
       <c r="J286" t="s">
         <v>878</v>
@@ -14482,7 +14482,7 @@
         <v>752</v>
       </c>
       <c r="I287">
-        <v>7.4087370821580904E-5</v>
+        <v>0</v>
       </c>
       <c r="J287" t="s">
         <v>878</v>
@@ -14508,7 +14508,7 @@
         <v>753</v>
       </c>
       <c r="I288">
-        <v>6.6856301915287203E-5</v>
+        <v>0</v>
       </c>
       <c r="J288" t="s">
         <v>878</v>
@@ -14534,7 +14534,7 @@
         <v>754</v>
       </c>
       <c r="I289">
-        <v>7.1621911245122203E-5</v>
+        <v>0</v>
       </c>
       <c r="J289" t="s">
         <v>878</v>
@@ -14548,7 +14548,7 @@
         <v>755</v>
       </c>
       <c r="C290">
-        <v>6.7889916943104602E-5</v>
+        <v>9.3079999999999997E-5</v>
       </c>
       <c r="D290" t="s">
         <v>468</v>
@@ -14560,7 +14560,7 @@
         <v>755</v>
       </c>
       <c r="I290">
-        <v>8.0497129916568306E-5</v>
+        <v>0</v>
       </c>
       <c r="J290" t="s">
         <v>878</v>
@@ -14574,7 +14574,7 @@
         <v>756</v>
       </c>
       <c r="C291">
-        <v>1.4409072909220001E-4</v>
+        <v>2.3651E-4</v>
       </c>
       <c r="D291" t="s">
         <v>468</v>
@@ -14586,7 +14586,7 @@
         <v>756</v>
       </c>
       <c r="I291">
-        <v>7.3909418846107103E-5</v>
+        <v>0</v>
       </c>
       <c r="J291" t="s">
         <v>878</v>
@@ -14600,7 +14600,7 @@
         <v>757</v>
       </c>
       <c r="C292">
-        <v>2.1379857759090001E-4</v>
+        <v>2.9942E-4</v>
       </c>
       <c r="D292" t="s">
         <v>468</v>
@@ -14612,7 +14612,7 @@
         <v>757</v>
       </c>
       <c r="I292">
-        <v>1.460977247874E-4</v>
+        <v>0</v>
       </c>
       <c r="J292" t="s">
         <v>878</v>
@@ -14626,7 +14626,7 @@
         <v>758</v>
       </c>
       <c r="C293">
-        <v>2.3592820928340001E-4</v>
+        <v>2.7130999999999998E-4</v>
       </c>
       <c r="D293" t="s">
         <v>468</v>
@@ -14638,7 +14638,7 @@
         <v>758</v>
       </c>
       <c r="I293">
-        <v>2.6019708069159998E-4</v>
+        <v>0</v>
       </c>
       <c r="J293" t="s">
         <v>878</v>
@@ -14652,7 +14652,7 @@
         <v>759</v>
       </c>
       <c r="C294">
-        <v>2.6137106218039998E-4</v>
+        <v>2.6321999999999999E-4</v>
       </c>
       <c r="D294" t="s">
         <v>468</v>
@@ -14664,7 +14664,7 @@
         <v>759</v>
       </c>
       <c r="I294">
-        <v>2.5732728595159998E-4</v>
+        <v>0</v>
       </c>
       <c r="J294" t="s">
         <v>878</v>
@@ -14678,7 +14678,7 @@
         <v>760</v>
       </c>
       <c r="C295">
-        <v>2.710020049844E-4</v>
+        <v>2.2630999999999999E-4</v>
       </c>
       <c r="D295" t="s">
         <v>468</v>
@@ -14690,7 +14690,7 @@
         <v>760</v>
       </c>
       <c r="I295">
-        <v>2.488446631688E-4</v>
+        <v>0</v>
       </c>
       <c r="J295" t="s">
         <v>878</v>
@@ -14704,7 +14704,7 @@
         <v>761</v>
       </c>
       <c r="C296">
-        <v>2.8121517721900002E-4</v>
+        <v>1.8892E-4</v>
       </c>
       <c r="D296" t="s">
         <v>468</v>
@@ -14716,7 +14716,7 @@
         <v>761</v>
       </c>
       <c r="I296">
-        <v>2.7401374857989998E-4</v>
+        <v>1.7E-5</v>
       </c>
       <c r="J296" t="s">
         <v>878</v>
@@ -14730,7 +14730,7 @@
         <v>762</v>
       </c>
       <c r="C297">
-        <v>3.1678112466099998E-4</v>
+        <v>3.4786000000000002E-4</v>
       </c>
       <c r="D297" t="s">
         <v>468</v>
@@ -14742,7 +14742,7 @@
         <v>762</v>
       </c>
       <c r="I297">
-        <v>3.3077745819469999E-4</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J297" t="s">
         <v>878</v>
@@ -14756,7 +14756,7 @@
         <v>763</v>
       </c>
       <c r="C298">
-        <v>3.0930877085709999E-4</v>
+        <v>3.9103E-4</v>
       </c>
       <c r="D298" t="s">
         <v>468</v>
@@ -14768,7 +14768,7 @@
         <v>763</v>
       </c>
       <c r="I298">
-        <v>3.6214149847440001E-4</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="J298" t="s">
         <v>878</v>
@@ -14782,7 +14782,7 @@
         <v>764</v>
       </c>
       <c r="C299">
-        <v>2.9842820483069998E-4</v>
+        <v>3.8711000000000003E-4</v>
       </c>
       <c r="D299" t="s">
         <v>468</v>
@@ -14794,7 +14794,7 @@
         <v>764</v>
       </c>
       <c r="I299">
-        <v>3.7249764344839998E-4</v>
+        <v>2.2699999999999999E-4</v>
       </c>
       <c r="J299" t="s">
         <v>878</v>
@@ -14808,7 +14808,7 @@
         <v>765</v>
       </c>
       <c r="C300">
-        <v>2.5664525902400001E-4</v>
+        <v>3.7000999999999999E-4</v>
       </c>
       <c r="D300" t="s">
         <v>468</v>
@@ -14820,7 +14820,7 @@
         <v>765</v>
       </c>
       <c r="I300">
-        <v>3.6885083939179998E-4</v>
+        <v>4.3300000000000001E-4</v>
       </c>
       <c r="J300" t="s">
         <v>878</v>
@@ -14834,7 +14834,7 @@
         <v>766</v>
       </c>
       <c r="C301">
-        <v>2.364351010099E-4</v>
+        <v>3.3837E-4</v>
       </c>
       <c r="D301" t="s">
         <v>468</v>
@@ -14846,7 +14846,7 @@
         <v>766</v>
       </c>
       <c r="I301">
-        <v>2.865521919919E-4</v>
+        <v>5.3399999999999997E-4</v>
       </c>
       <c r="J301" t="s">
         <v>878</v>
@@ -14860,7 +14860,7 @@
         <v>767</v>
       </c>
       <c r="C302">
-        <v>1.6935342660979999E-4</v>
+        <v>2.7699000000000002E-4</v>
       </c>
       <c r="D302" t="s">
         <v>468</v>
@@ -14872,7 +14872,7 @@
         <v>767</v>
       </c>
       <c r="I302">
-        <v>1.8594220242759999E-4</v>
+        <v>1.8799999999999999E-4</v>
       </c>
       <c r="J302" t="s">
         <v>878</v>
@@ -14886,7 +14886,7 @@
         <v>768</v>
       </c>
       <c r="C303">
-        <v>1.0719736405950001E-4</v>
+        <v>1.8034E-4</v>
       </c>
       <c r="D303" t="s">
         <v>468</v>
@@ -14898,7 +14898,7 @@
         <v>768</v>
       </c>
       <c r="I303">
-        <v>1.2608378339479999E-4</v>
+        <v>1.4899999999999999E-4</v>
       </c>
       <c r="J303" t="s">
         <v>878</v>
@@ -14924,7 +14924,7 @@
         <v>769</v>
       </c>
       <c r="I304">
-        <v>1.208275068453E-4</v>
+        <v>2.9E-5</v>
       </c>
       <c r="J304" t="s">
         <v>878</v>
@@ -14950,7 +14950,7 @@
         <v>770</v>
       </c>
       <c r="I305">
-        <v>1.208275068453E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J305" t="s">
         <v>878</v>
@@ -14976,7 +14976,7 @@
         <v>771</v>
       </c>
       <c r="I306">
-        <v>1.077577849081E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J306" t="s">
         <v>878</v>
@@ -15002,7 +15002,7 @@
         <v>772</v>
       </c>
       <c r="I307">
-        <v>1.14286835623E-4</v>
+        <v>6.9999999999999999E-6</v>
       </c>
       <c r="J307" t="s">
         <v>878</v>
@@ -15016,7 +15016,7 @@
         <v>773</v>
       </c>
       <c r="C308">
-        <v>3.061142884255227E-3</v>
+        <v>2.8377300000000001E-3</v>
       </c>
       <c r="D308" t="s">
         <v>468</v>
@@ -15028,7 +15028,7 @@
         <v>773</v>
       </c>
       <c r="I308">
-        <v>9.6215282906906133E-2</v>
+        <v>6.7732000000000001E-2</v>
       </c>
       <c r="J308" t="s">
         <v>878</v>
@@ -15042,7 +15042,7 @@
         <v>774</v>
       </c>
       <c r="C309">
-        <v>1.398502072057096E-2</v>
+        <v>1.34933E-2</v>
       </c>
       <c r="D309" t="s">
         <v>468</v>
@@ -15054,7 +15054,7 @@
         <v>774</v>
       </c>
       <c r="I309">
-        <v>1.1575599009864683E-2</v>
+        <v>9.0889999999999999E-3</v>
       </c>
       <c r="J309" t="s">
         <v>878</v>
@@ -15068,7 +15068,7 @@
         <v>775</v>
       </c>
       <c r="C310">
-        <v>2.9705627248340933E-2</v>
+        <v>3.0079740000000001E-2</v>
       </c>
       <c r="D310" t="s">
         <v>468</v>
@@ -15080,7 +15080,7 @@
         <v>775</v>
       </c>
       <c r="I310">
-        <v>1.108728298415867E-2</v>
+        <v>8.7390000000000002E-3</v>
       </c>
       <c r="J310" t="s">
         <v>878</v>
@@ -15094,7 +15094,7 @@
         <v>776</v>
       </c>
       <c r="C311">
-        <v>4.2062414295624177E-2</v>
+        <v>4.3182419999999999E-2</v>
       </c>
       <c r="D311" t="s">
         <v>468</v>
@@ -15106,7 +15106,7 @@
         <v>776</v>
       </c>
       <c r="I311">
-        <v>1.1689676549965214E-2</v>
+        <v>1.0577E-2</v>
       </c>
       <c r="J311" t="s">
         <v>878</v>
@@ -15120,7 +15120,7 @@
         <v>777</v>
       </c>
       <c r="C312">
-        <v>0.32844098799309945</v>
+        <v>0.33713694999999999</v>
       </c>
       <c r="D312" t="s">
         <v>468</v>
@@ -15132,7 +15132,7 @@
         <v>777</v>
       </c>
       <c r="I312">
-        <v>0.15210822924251083</v>
+        <v>0.15864700000000001</v>
       </c>
       <c r="J312" t="s">
         <v>878</v>
@@ -15146,7 +15146,7 @@
         <v>778</v>
       </c>
       <c r="C313">
-        <v>2.6255190699224242E-2</v>
+        <v>2.7040439999999999E-2</v>
       </c>
       <c r="D313" t="s">
         <v>468</v>
@@ -15158,7 +15158,7 @@
         <v>778</v>
       </c>
       <c r="I313">
-        <v>1.855550823617174E-2</v>
+        <v>1.5952999999999998E-2</v>
       </c>
       <c r="J313" t="s">
         <v>878</v>
@@ -15172,7 +15172,7 @@
         <v>779</v>
       </c>
       <c r="C314">
-        <v>1.3020902011170298E-2</v>
+        <v>1.360535E-2</v>
       </c>
       <c r="D314" t="s">
         <v>468</v>
@@ -15184,7 +15184,7 @@
         <v>779</v>
       </c>
       <c r="I314">
-        <v>1.6727137746032576E-2</v>
+        <v>1.0891E-2</v>
       </c>
       <c r="J314" t="s">
         <v>878</v>
@@ -15198,7 +15198,7 @@
         <v>780</v>
       </c>
       <c r="C315">
-        <v>5.6392122209123815E-3</v>
+        <v>5.40765E-3</v>
       </c>
       <c r="D315" t="s">
         <v>468</v>
@@ -15210,7 +15210,7 @@
         <v>780</v>
       </c>
       <c r="I315">
-        <v>7.5230560768976357E-2</v>
+        <v>4.4816000000000002E-2</v>
       </c>
       <c r="J315" t="s">
         <v>878</v>
@@ -15236,7 +15236,7 @@
         <v>781</v>
       </c>
       <c r="I316">
-        <v>8.0309052586363005E-5</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J316" t="s">
         <v>878</v>
@@ -15262,7 +15262,7 @@
         <v>782</v>
       </c>
       <c r="I317">
-        <v>7.9186737456913106E-5</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J317" t="s">
         <v>878</v>
@@ -15288,7 +15288,7 @@
         <v>783</v>
       </c>
       <c r="I318">
-        <v>7.2847687756153707E-5</v>
+        <v>1.6899999999999999E-4</v>
       </c>
       <c r="J318" t="s">
         <v>878</v>
@@ -15314,7 +15314,7 @@
         <v>784</v>
       </c>
       <c r="I319">
-        <v>8.4514884281240298E-5</v>
+        <v>1.8799999999999999E-4</v>
       </c>
       <c r="J319" t="s">
         <v>878</v>
@@ -15340,7 +15340,7 @@
         <v>785</v>
       </c>
       <c r="I320">
-        <v>8.1821899579519099E-5</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="J320" t="s">
         <v>878</v>
@@ -15366,7 +15366,7 @@
         <v>786</v>
       </c>
       <c r="I321">
-        <v>6.3745947957069701E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="J321" t="s">
         <v>878</v>
@@ -15392,7 +15392,7 @@
         <v>787</v>
       </c>
       <c r="I322">
-        <v>5.7066140372409801E-5</v>
+        <v>2.9E-5</v>
       </c>
       <c r="J322" t="s">
         <v>878</v>
@@ -15418,7 +15418,7 @@
         <v>788</v>
       </c>
       <c r="I323">
-        <v>7.5161084248319496E-5</v>
+        <v>2.99E-4</v>
       </c>
       <c r="J323" t="s">
         <v>878</v>
@@ -15432,7 +15432,7 @@
         <v>789</v>
       </c>
       <c r="C324">
-        <v>1.8097426746789799E-7</v>
+        <v>0</v>
       </c>
       <c r="D324" t="s">
         <v>468</v>
@@ -15444,7 +15444,7 @@
         <v>789</v>
       </c>
       <c r="I324">
-        <v>8.2012330611608105E-5</v>
+        <v>2.7E-4</v>
       </c>
       <c r="J324" t="s">
         <v>878</v>
@@ -15458,7 +15458,7 @@
         <v>790</v>
       </c>
       <c r="C325">
-        <v>8.3021331034832294E-5</v>
+        <v>1.9300000000000002E-6</v>
       </c>
       <c r="D325" t="s">
         <v>468</v>
@@ -15470,7 +15470,7 @@
         <v>790</v>
       </c>
       <c r="I325">
-        <v>8.0309052586363005E-5</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J325" t="s">
         <v>878</v>
@@ -15484,7 +15484,7 @@
         <v>791</v>
       </c>
       <c r="C326">
-        <v>1.1328825365870001E-4</v>
+        <v>9.9000000000000001E-6</v>
       </c>
       <c r="D326" t="s">
         <v>468</v>
@@ -15496,7 +15496,7 @@
         <v>791</v>
       </c>
       <c r="I326">
-        <v>6.7189472243698502E-5</v>
+        <v>1.4899999999999999E-4</v>
       </c>
       <c r="J326" t="s">
         <v>878</v>
@@ -15510,7 +15510,7 @@
         <v>792</v>
       </c>
       <c r="C327">
-        <v>1.4296885241149999E-4</v>
+        <v>1.552E-5</v>
       </c>
       <c r="D327" t="s">
         <v>468</v>
@@ -15522,7 +15522,7 @@
         <v>792</v>
       </c>
       <c r="I327">
-        <v>6.4717503815549701E-5</v>
+        <v>5.7000000000000003E-5</v>
       </c>
       <c r="J327" t="s">
         <v>878</v>
@@ -15536,7 +15536,7 @@
         <v>793</v>
       </c>
       <c r="C328">
-        <v>1.5041172624420001E-4</v>
+        <v>1.7390000000000001E-5</v>
       </c>
       <c r="D328" t="s">
         <v>468</v>
@@ -15548,7 +15548,7 @@
         <v>793</v>
       </c>
       <c r="I328">
-        <v>6.1359704864236999E-5</v>
+        <v>7.2999999999999999E-5</v>
       </c>
       <c r="J328" t="s">
         <v>878</v>
@@ -15562,7 +15562,7 @@
         <v>794</v>
       </c>
       <c r="C329">
-        <v>1.4990237785340001E-4</v>
+        <v>2.2719999999999999E-5</v>
       </c>
       <c r="D329" t="s">
         <v>468</v>
@@ -15574,7 +15574,7 @@
         <v>794</v>
       </c>
       <c r="I329">
-        <v>4.5653489395503402E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="J329" t="s">
         <v>878</v>
@@ -15588,7 +15588,7 @@
         <v>795</v>
       </c>
       <c r="C330">
-        <v>1.4260280943609999E-4</v>
+        <v>6.1600000000000003E-6</v>
       </c>
       <c r="D330" t="s">
         <v>468</v>
@@ -15600,7 +15600,7 @@
         <v>795</v>
       </c>
       <c r="I330">
-        <v>6.4717503815549701E-5</v>
+        <v>2.3E-5</v>
       </c>
       <c r="J330" t="s">
         <v>878</v>
@@ -15614,7 +15614,7 @@
         <v>796</v>
       </c>
       <c r="C331">
-        <v>1.2878079739729999E-4</v>
+        <v>4.8799999999999999E-6</v>
       </c>
       <c r="D331" t="s">
         <v>468</v>
@@ -15626,7 +15626,7 @@
         <v>796</v>
       </c>
       <c r="I331">
-        <v>7.1621911245122095E-5</v>
+        <v>3.4E-5</v>
       </c>
       <c r="J331" t="s">
         <v>878</v>
@@ -15640,7 +15640,7 @@
         <v>797</v>
       </c>
       <c r="C332">
-        <v>9.1473893880097704E-5</v>
+        <v>5.7999999999999995E-7</v>
       </c>
       <c r="D332" t="s">
         <v>468</v>
@@ -15652,7 +15652,7 @@
         <v>797</v>
       </c>
       <c r="I332">
-        <v>6.2465733247207898E-5</v>
+        <v>2.3E-5</v>
       </c>
       <c r="J332" t="s">
         <v>878</v>
@@ -15666,7 +15666,7 @@
         <v>798</v>
       </c>
       <c r="C333">
-        <v>3.0790192112185398E-7</v>
+        <v>0</v>
       </c>
       <c r="D333" t="s">
         <v>468</v>
@@ -15678,7 +15678,7 @@
         <v>798</v>
       </c>
       <c r="I333">
-        <v>7.8074927540223201E-5</v>
+        <v>3.4E-5</v>
       </c>
       <c r="J333" t="s">
         <v>878</v>
@@ -15704,7 +15704,7 @@
         <v>799</v>
       </c>
       <c r="I334">
-        <v>9.0076831549493606E-5</v>
+        <v>1.7E-5</v>
       </c>
       <c r="J334" t="s">
         <v>878</v>
@@ -15730,7 +15730,7 @@
         <v>800</v>
       </c>
       <c r="I335">
-        <v>1.0324968806690001E-4</v>
+        <v>0</v>
       </c>
       <c r="J335" t="s">
         <v>878</v>
@@ -15756,7 +15756,7 @@
         <v>801</v>
       </c>
       <c r="I336">
-        <v>1.422118612391E-4</v>
+        <v>1.7E-5</v>
       </c>
       <c r="J336" t="s">
         <v>878</v>
@@ -15782,7 +15782,7 @@
         <v>802</v>
       </c>
       <c r="I337">
-        <v>1.623489452787E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J337" t="s">
         <v>878</v>
@@ -15808,7 +15808,7 @@
         <v>803</v>
       </c>
       <c r="I338">
-        <v>1.74666381946E-4</v>
+        <v>1.2E-5</v>
       </c>
       <c r="J338" t="s">
         <v>878</v>
@@ -15834,7 +15834,7 @@
         <v>804</v>
       </c>
       <c r="I339">
-        <v>1.8594220242759999E-4</v>
+        <v>1.4899999999999999E-4</v>
       </c>
       <c r="J339" t="s">
         <v>878</v>
@@ -15860,7 +15860,7 @@
         <v>805</v>
       </c>
       <c r="I340">
-        <v>5.42697716633592E-5</v>
+        <v>0</v>
       </c>
       <c r="J340" t="s">
         <v>878</v>
@@ -15886,7 +15886,7 @@
         <v>806</v>
       </c>
       <c r="I341">
-        <v>5.9494167886486197E-5</v>
+        <v>0</v>
       </c>
       <c r="J341" t="s">
         <v>878</v>
@@ -15912,7 +15912,7 @@
         <v>807</v>
       </c>
       <c r="I342">
-        <v>6.5863402883887197E-5</v>
+        <v>0</v>
       </c>
       <c r="J342" t="s">
         <v>878</v>
@@ -15938,7 +15938,7 @@
         <v>808</v>
       </c>
       <c r="I343">
-        <v>5.6024994302050699E-5</v>
+        <v>0</v>
       </c>
       <c r="J343" t="s">
         <v>878</v>
@@ -15964,7 +15964,7 @@
         <v>809</v>
       </c>
       <c r="I344">
-        <v>5.1287041464848399E-5</v>
+        <v>0</v>
       </c>
       <c r="J344" t="s">
         <v>878</v>
@@ -15990,7 +15990,7 @@
         <v>810</v>
       </c>
       <c r="I345">
-        <v>5.9340436262653401E-5</v>
+        <v>0</v>
       </c>
       <c r="J345" t="s">
         <v>878</v>
@@ -16016,7 +16016,7 @@
         <v>811</v>
       </c>
       <c r="I346">
-        <v>7.7890643759070006E-5</v>
+        <v>0</v>
       </c>
       <c r="J346" t="s">
         <v>878</v>
@@ -16042,7 +16042,7 @@
         <v>812</v>
       </c>
       <c r="I347">
-        <v>6.7189472243698502E-5</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
         <v>878</v>
@@ -16068,7 +16068,7 @@
         <v>813</v>
       </c>
       <c r="I348">
-        <v>7.1621911245122095E-5</v>
+        <v>0</v>
       </c>
       <c r="J348" t="s">
         <v>878</v>
@@ -16082,7 +16082,7 @@
         <v>814</v>
       </c>
       <c r="C349">
-        <v>1.0653897803660001E-4</v>
+        <v>1.0560000000000001E-5</v>
       </c>
       <c r="D349" t="s">
         <v>468</v>
@@ -16094,7 +16094,7 @@
         <v>814</v>
       </c>
       <c r="I349">
-        <v>5.5142727263413603E-5</v>
+        <v>0</v>
       </c>
       <c r="J349" t="s">
         <v>878</v>
@@ -16108,7 +16108,7 @@
         <v>815</v>
       </c>
       <c r="C350">
-        <v>1.2923855583850001E-4</v>
+        <v>3.4770000000000001E-5</v>
       </c>
       <c r="D350" t="s">
         <v>468</v>
@@ -16120,7 +16120,7 @@
         <v>815</v>
       </c>
       <c r="I350">
-        <v>4.4502615963170703E-5</v>
+        <v>0</v>
       </c>
       <c r="J350" t="s">
         <v>878</v>
@@ -16134,7 +16134,7 @@
         <v>816</v>
       </c>
       <c r="C351">
-        <v>1.563552159875E-4</v>
+        <v>7.4040000000000003E-5</v>
       </c>
       <c r="D351" t="s">
         <v>468</v>
@@ -16146,7 +16146,7 @@
         <v>816</v>
       </c>
       <c r="I351">
-        <v>6.8195620796311906E-5</v>
+        <v>0</v>
       </c>
       <c r="J351" t="s">
         <v>878</v>
@@ -16160,7 +16160,7 @@
         <v>817</v>
       </c>
       <c r="C352">
-        <v>1.9104904761559999E-4</v>
+        <v>1.9578E-4</v>
       </c>
       <c r="D352" t="s">
         <v>468</v>
@@ -16172,7 +16172,7 @@
         <v>817</v>
       </c>
       <c r="I352">
-        <v>1.1571938384590001E-4</v>
+        <v>0</v>
       </c>
       <c r="J352" t="s">
         <v>878</v>
@@ -16186,7 +16186,7 @@
         <v>818</v>
       </c>
       <c r="C353">
-        <v>1.8902311848570001E-4</v>
+        <v>2.8521999999999998E-4</v>
       </c>
       <c r="D353" t="s">
         <v>468</v>
@@ -16198,7 +16198,7 @@
         <v>818</v>
       </c>
       <c r="I353">
-        <v>9.3986715762938005E-5</v>
+        <v>0</v>
       </c>
       <c r="J353" t="s">
         <v>878</v>
@@ -16212,7 +16212,7 @@
         <v>819</v>
       </c>
       <c r="C354">
-        <v>8.2747003525322204E-5</v>
+        <v>5.0349999999999997E-5</v>
       </c>
       <c r="D354" t="s">
         <v>468</v>
@@ -16224,7 +16224,7 @@
         <v>819</v>
       </c>
       <c r="I354">
-        <v>1.500537374337E-4</v>
+        <v>0</v>
       </c>
       <c r="J354" t="s">
         <v>878</v>
@@ -16238,7 +16238,7 @@
         <v>820</v>
       </c>
       <c r="C355">
-        <v>1.015183751686E-4</v>
+        <v>2.2258999999999999E-4</v>
       </c>
       <c r="D355" t="s">
         <v>468</v>
@@ -16250,7 +16250,7 @@
         <v>820</v>
       </c>
       <c r="I355">
-        <v>8.4514884281240298E-5</v>
+        <v>0</v>
       </c>
       <c r="J355" t="s">
         <v>878</v>
@@ -16264,7 +16264,7 @@
         <v>821</v>
       </c>
       <c r="C356">
-        <v>8.4250482055055502E-5</v>
+        <v>1.1196000000000001E-4</v>
       </c>
       <c r="D356" t="s">
         <v>468</v>
@@ -16276,7 +16276,7 @@
         <v>821</v>
       </c>
       <c r="I356">
-        <v>9.7152174367670497E-5</v>
+        <v>0</v>
       </c>
       <c r="J356" t="s">
         <v>878</v>
@@ -16290,7 +16290,7 @@
         <v>822</v>
       </c>
       <c r="C357">
-        <v>3.80782960961868E-7</v>
+        <v>8.0999999999999997E-7</v>
       </c>
       <c r="D357" t="s">
         <v>468</v>
@@ -16302,7 +16302,7 @@
         <v>822</v>
       </c>
       <c r="I357">
-        <v>5.8120106022324803E-5</v>
+        <v>0</v>
       </c>
       <c r="J357" t="s">
         <v>878</v>
@@ -16328,7 +16328,7 @@
         <v>823</v>
       </c>
       <c r="I358">
-        <v>7.6608770381555798E-5</v>
+        <v>0</v>
       </c>
       <c r="J358" t="s">
         <v>878</v>
@@ -16354,7 +16354,7 @@
         <v>824</v>
       </c>
       <c r="I359">
-        <v>8.2968918973667301E-5</v>
+        <v>0</v>
       </c>
       <c r="J359" t="s">
         <v>878</v>
@@ -16380,7 +16380,7 @@
         <v>825</v>
       </c>
       <c r="I360">
-        <v>8.8664151395620694E-5</v>
+        <v>0</v>
       </c>
       <c r="J360" t="s">
         <v>878</v>
@@ -16406,7 +16406,7 @@
         <v>826</v>
       </c>
       <c r="I361">
-        <v>8.7266319093943001E-5</v>
+        <v>0</v>
       </c>
       <c r="J361" t="s">
         <v>878</v>
@@ -16432,7 +16432,7 @@
         <v>827</v>
       </c>
       <c r="I362">
-        <v>9.1299577391107603E-5</v>
+        <v>0</v>
       </c>
       <c r="J362" t="s">
         <v>878</v>
@@ -16458,7 +16458,7 @@
         <v>828</v>
       </c>
       <c r="I363">
-        <v>9.8653395746025203E-5</v>
+        <v>0</v>
       </c>
       <c r="J363" t="s">
         <v>878</v>
@@ -16484,7 +16484,7 @@
         <v>829</v>
       </c>
       <c r="I364">
-        <v>5.03176453390059E-5</v>
+        <v>3.4E-5</v>
       </c>
       <c r="J364" t="s">
         <v>878</v>
@@ -16510,7 +16510,7 @@
         <v>830</v>
       </c>
       <c r="I365">
-        <v>4.2136847774555599E-5</v>
+        <v>3.4E-5</v>
       </c>
       <c r="J365" t="s">
         <v>878</v>
@@ -16536,7 +16536,7 @@
         <v>831</v>
       </c>
       <c r="I366">
-        <v>3.5002512692015898E-5</v>
+        <v>3.4E-5</v>
       </c>
       <c r="J366" t="s">
         <v>878</v>
@@ -16562,7 +16562,7 @@
         <v>832</v>
       </c>
       <c r="I367">
-        <v>4.6431657267651102E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="J367" t="s">
         <v>878</v>
@@ -16588,7 +16588,7 @@
         <v>833</v>
       </c>
       <c r="I368">
-        <v>3.5983835201243402E-5</v>
+        <v>5.7000000000000003E-5</v>
       </c>
       <c r="J368" t="s">
         <v>878</v>
@@ -16614,7 +16614,7 @@
         <v>834</v>
       </c>
       <c r="I369">
-        <v>3.5764198971784502E-5</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="J369" t="s">
         <v>878</v>
@@ -16640,7 +16640,7 @@
         <v>835</v>
       </c>
       <c r="I370">
-        <v>3.5764198971784502E-5</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="J370" t="s">
         <v>878</v>
@@ -16666,7 +16666,7 @@
         <v>836</v>
       </c>
       <c r="I371">
-        <v>3.3722062276550297E-5</v>
+        <v>5.7000000000000003E-5</v>
       </c>
       <c r="J371" t="s">
         <v>878</v>
@@ -16692,7 +16692,7 @@
         <v>837</v>
       </c>
       <c r="I372">
-        <v>2.8817450636198799E-5</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J372" t="s">
         <v>878</v>
@@ -16706,7 +16706,7 @@
         <v>838</v>
       </c>
       <c r="C373">
-        <v>1.692870966746E-4</v>
+        <v>1.2860000000000001E-4</v>
       </c>
       <c r="D373" t="s">
         <v>468</v>
@@ -16718,7 +16718,7 @@
         <v>838</v>
       </c>
       <c r="I373">
-        <v>2.38231272856948E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="J373" t="s">
         <v>878</v>
@@ -16732,7 +16732,7 @@
         <v>839</v>
       </c>
       <c r="C374">
-        <v>2.4877738227359998E-4</v>
+        <v>1.9254E-4</v>
       </c>
       <c r="D374" t="s">
         <v>468</v>
@@ -16744,7 +16744,7 @@
         <v>839</v>
       </c>
       <c r="I374">
-        <v>1.7064152843653401E-5</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J374" t="s">
         <v>878</v>
@@ -16758,7 +16758,7 @@
         <v>840</v>
       </c>
       <c r="C375">
-        <v>2.6772481485580002E-4</v>
+        <v>1.6791000000000001E-4</v>
       </c>
       <c r="D375" t="s">
         <v>468</v>
@@ -16770,7 +16770,7 @@
         <v>840</v>
       </c>
       <c r="I375">
-        <v>3.1355894867285897E-5</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J375" t="s">
         <v>878</v>
@@ -16784,7 +16784,7 @@
         <v>841</v>
       </c>
       <c r="C376">
-        <v>2.4929164399289998E-4</v>
+        <v>1.0296E-4</v>
       </c>
       <c r="D376" t="s">
         <v>468</v>
@@ -16796,7 +16796,7 @@
         <v>841</v>
       </c>
       <c r="I376">
-        <v>4.0567444738751001E-5</v>
+        <v>1.4899999999999999E-4</v>
       </c>
       <c r="J376" t="s">
         <v>878</v>
@@ -16810,7 +16810,7 @@
         <v>842</v>
       </c>
       <c r="C377">
-        <v>2.2956217328659999E-4</v>
+        <v>1.2731E-4</v>
       </c>
       <c r="D377" t="s">
         <v>468</v>
@@ -16822,7 +16822,7 @@
         <v>842</v>
       </c>
       <c r="I377">
-        <v>3.2165910743959701E-5</v>
+        <v>5.7000000000000003E-5</v>
       </c>
       <c r="J377" t="s">
         <v>878</v>
@@ -16836,7 +16836,7 @@
         <v>843</v>
       </c>
       <c r="C378">
-        <v>2.5003928881739998E-4</v>
+        <v>1.1548E-4</v>
       </c>
       <c r="D378" t="s">
         <v>468</v>
@@ -16848,7 +16848,7 @@
         <v>843</v>
       </c>
       <c r="I378">
-        <v>3.2886016634195103E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="J378" t="s">
         <v>878</v>
@@ -16862,7 +16862,7 @@
         <v>844</v>
       </c>
       <c r="C379">
-        <v>2.1606362204250001E-4</v>
+        <v>1.5349999999999999E-4</v>
       </c>
       <c r="D379" t="s">
         <v>468</v>
@@ -16874,7 +16874,7 @@
         <v>844</v>
       </c>
       <c r="I379">
-        <v>2.8064911555775101E-5</v>
+        <v>3.4E-5</v>
       </c>
       <c r="J379" t="s">
         <v>878</v>
@@ -16888,7 +16888,7 @@
         <v>845</v>
       </c>
       <c r="C380">
-        <v>1.5532177922030001E-4</v>
+        <v>2.2753000000000001E-4</v>
       </c>
       <c r="D380" t="s">
         <v>468</v>
@@ -16900,7 +16900,7 @@
         <v>845</v>
       </c>
       <c r="I380">
-        <v>4.1407572501815301E-5</v>
+        <v>1.6899999999999999E-4</v>
       </c>
       <c r="J380" t="s">
         <v>878</v>
@@ -16914,7 +16914,7 @@
         <v>846</v>
       </c>
       <c r="C381">
-        <v>9.8571196939574093E-5</v>
+        <v>1.6102E-4</v>
       </c>
       <c r="D381" t="s">
         <v>468</v>
@@ -16926,7 +16926,7 @@
         <v>846</v>
       </c>
       <c r="I381">
-        <v>5.4125180873600298E-5</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="J381" t="s">
         <v>878</v>
@@ -16952,7 +16952,7 @@
         <v>847</v>
       </c>
       <c r="I382">
-        <v>7.2847687756153707E-5</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="J382" t="s">
         <v>878</v>
@@ -16978,7 +16978,7 @@
         <v>848</v>
       </c>
       <c r="I383">
-        <v>8.5686876882315301E-5</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="J383" t="s">
         <v>878</v>
@@ -17004,7 +17004,7 @@
         <v>849</v>
       </c>
       <c r="I384">
-        <v>1.14286835623E-4</v>
+        <v>1.6899999999999999E-4</v>
       </c>
       <c r="J384" t="s">
         <v>878</v>
@@ -17030,7 +17030,7 @@
         <v>850</v>
       </c>
       <c r="I385">
-        <v>1.3306295668769999E-4</v>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="J385" t="s">
         <v>878</v>
@@ -17056,7 +17056,7 @@
         <v>851</v>
       </c>
       <c r="I386">
-        <v>1.3517922679740001E-4</v>
+        <v>1.8799999999999999E-4</v>
       </c>
       <c r="J386" t="s">
         <v>878</v>
@@ -17082,7 +17082,7 @@
         <v>852</v>
       </c>
       <c r="I387">
-        <v>1.441460635968E-4</v>
+        <v>1.6899999999999999E-4</v>
       </c>
       <c r="J387" t="s">
         <v>878</v>
@@ -17108,7 +17108,7 @@
         <v>853</v>
       </c>
       <c r="I388">
-        <v>1.205809201728E-4</v>
+        <v>0</v>
       </c>
       <c r="J388" t="s">
         <v>878</v>
@@ -17134,7 +17134,7 @@
         <v>854</v>
       </c>
       <c r="I389">
-        <v>1.2406378819949999E-4</v>
+        <v>0</v>
       </c>
       <c r="J389" t="s">
         <v>878</v>
@@ -17160,7 +17160,7 @@
         <v>855</v>
       </c>
       <c r="I390">
-        <v>1.2583009376599999E-4</v>
+        <v>0</v>
       </c>
       <c r="J390" t="s">
         <v>878</v>
@@ -17186,7 +17186,7 @@
         <v>856</v>
       </c>
       <c r="I391">
-        <v>6.9382096523365805E-5</v>
+        <v>0</v>
       </c>
       <c r="J391" t="s">
         <v>878</v>
@@ -17212,7 +17212,7 @@
         <v>857</v>
       </c>
       <c r="I392">
-        <v>7.5341038882887194E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="J392" t="s">
         <v>878</v>
@@ -17238,7 +17238,7 @@
         <v>858</v>
       </c>
       <c r="I393">
-        <v>7.3023932085692302E-5</v>
+        <v>2.9E-5</v>
       </c>
       <c r="J393" t="s">
         <v>878</v>
@@ -17264,7 +17264,7 @@
         <v>859</v>
       </c>
       <c r="I394">
-        <v>6.1359704864236999E-5</v>
+        <v>0</v>
       </c>
       <c r="J394" t="s">
         <v>878</v>
@@ -17290,7 +17290,7 @@
         <v>860</v>
       </c>
       <c r="I395">
-        <v>5.6024994302050699E-5</v>
+        <v>0</v>
       </c>
       <c r="J395" t="s">
         <v>878</v>
@@ -17316,7 +17316,7 @@
         <v>861</v>
       </c>
       <c r="I396">
-        <v>2.8722656466790399E-5</v>
+        <v>0</v>
       </c>
       <c r="J396" t="s">
         <v>878</v>
@@ -17330,7 +17330,7 @@
         <v>862</v>
       </c>
       <c r="C397">
-        <v>4.82595316954102E-5</v>
+        <v>0</v>
       </c>
       <c r="D397" t="s">
         <v>468</v>
@@ -17342,7 +17342,7 @@
         <v>862</v>
       </c>
       <c r="I397">
-        <v>2.6152076764866798E-5</v>
+        <v>0</v>
       </c>
       <c r="J397" t="s">
         <v>878</v>
@@ -17356,7 +17356,7 @@
         <v>863</v>
       </c>
       <c r="C398">
-        <v>7.8572312052239198E-5</v>
+        <v>4.3000000000000001E-7</v>
       </c>
       <c r="D398" t="s">
         <v>468</v>
@@ -17368,7 +17368,7 @@
         <v>863</v>
       </c>
       <c r="I398">
-        <v>2.5534337010332201E-5</v>
+        <v>0</v>
       </c>
       <c r="J398" t="s">
         <v>878</v>
@@ -17382,7 +17382,7 @@
         <v>864</v>
       </c>
       <c r="C399">
-        <v>1.05463777977E-4</v>
+        <v>1.61E-6</v>
       </c>
       <c r="D399" t="s">
         <v>468</v>
@@ -17394,7 +17394,7 @@
         <v>864</v>
       </c>
       <c r="I399">
-        <v>2.8064911555775101E-5</v>
+        <v>0</v>
       </c>
       <c r="J399" t="s">
         <v>878</v>
@@ -17408,7 +17408,7 @@
         <v>865</v>
       </c>
       <c r="C400">
-        <v>9.4761729553779201E-5</v>
+        <v>3.5999999999999998E-6</v>
       </c>
       <c r="D400" t="s">
         <v>468</v>
@@ -17420,7 +17420,7 @@
         <v>865</v>
       </c>
       <c r="I400">
-        <v>3.8689989534309698E-5</v>
+        <v>0</v>
       </c>
       <c r="J400" t="s">
         <v>878</v>
@@ -17434,7 +17434,7 @@
         <v>866</v>
       </c>
       <c r="C401">
-        <v>9.8029911913346599E-5</v>
+        <v>7.0700000000000001E-6</v>
       </c>
       <c r="D401" t="s">
         <v>468</v>
@@ -17446,7 +17446,7 @@
         <v>866</v>
       </c>
       <c r="I401">
-        <v>4.5653489395503301E-5</v>
+        <v>0</v>
       </c>
       <c r="J401" t="s">
         <v>878</v>
@@ -17460,7 +17460,7 @@
         <v>867</v>
       </c>
       <c r="C402">
-        <v>9.8194508419052696E-5</v>
+        <v>3.36E-6</v>
       </c>
       <c r="D402" t="s">
         <v>468</v>
@@ -17472,7 +17472,7 @@
         <v>867</v>
       </c>
       <c r="I402">
-        <v>6.6856301915287203E-5</v>
+        <v>0</v>
       </c>
       <c r="J402" t="s">
         <v>878</v>
@@ -17486,7 +17486,7 @@
         <v>868</v>
       </c>
       <c r="C403">
-        <v>1.6545797597469999E-4</v>
+        <v>3.32E-6</v>
       </c>
       <c r="D403" t="s">
         <v>468</v>
@@ -17498,7 +17498,7 @@
         <v>868</v>
       </c>
       <c r="I403">
-        <v>5.4125180873600298E-5</v>
+        <v>0</v>
       </c>
       <c r="J403" t="s">
         <v>878</v>
@@ -17512,7 +17512,7 @@
         <v>869</v>
       </c>
       <c r="C404">
-        <v>1.4825231835589999E-4</v>
+        <v>4.5300000000000003E-5</v>
       </c>
       <c r="D404" t="s">
         <v>468</v>
@@ -17524,7 +17524,7 @@
         <v>869</v>
       </c>
       <c r="I404">
-        <v>7.4087370821580904E-5</v>
+        <v>0</v>
       </c>
       <c r="J404" t="s">
         <v>878</v>
@@ -17538,7 +17538,7 @@
         <v>870</v>
       </c>
       <c r="C405">
-        <v>1.108880926725E-4</v>
+        <v>5.8650000000000003E-5</v>
       </c>
       <c r="D405" t="s">
         <v>468</v>
@@ -17550,7 +17550,7 @@
         <v>870</v>
       </c>
       <c r="I405">
-        <v>7.4087370821580904E-5</v>
+        <v>3.4E-5</v>
       </c>
       <c r="J405" t="s">
         <v>878</v>
@@ -17576,7 +17576,7 @@
         <v>871</v>
       </c>
       <c r="I406">
-        <v>8.6869654615612704E-5</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="J406" t="s">
         <v>878</v>
@@ -17602,7 +17602,7 @@
         <v>872</v>
       </c>
       <c r="I407">
-        <v>1.276130849566E-4</v>
+        <v>2.2699999999999999E-4</v>
       </c>
       <c r="J407" t="s">
         <v>878</v>
@@ -17628,7 +17628,7 @@
         <v>873</v>
       </c>
       <c r="I408">
-        <v>1.4637796331369999E-4</v>
+        <v>1.8799999999999999E-4</v>
       </c>
       <c r="J408" t="s">
         <v>878</v>
@@ -17654,7 +17654,7 @@
         <v>874</v>
       </c>
       <c r="I409">
-        <v>1.466585599721E-4</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="J409" t="s">
         <v>878</v>
@@ -17680,7 +17680,7 @@
         <v>875</v>
       </c>
       <c r="I410">
-        <v>1.4637796331369999E-4</v>
+        <v>7.2999999999999999E-5</v>
       </c>
       <c r="J410" t="s">
         <v>878</v>
@@ -17706,7 +17706,7 @@
         <v>876</v>
       </c>
       <c r="I411">
-        <v>1.4056780984980001E-4</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J411" t="s">
         <v>878</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BE6283-F222-432A-8C18-216884FD5537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4522875D-EFB2-46DC-9C4F-EF6FC639137A}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple5.xlsx
+++ b/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEAE1F4-A592-4E4A-AB51-A5BC073F4DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E45133-0B74-4CC7-8B90-6910D5463335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18</t>
-  </si>
-  <si>
-    <t>S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24</t>
+    <t>S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15</t>
+  </si>
+  <si>
+    <t>S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24</v>
+        <v>S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18</v>
+        <v>S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5C3C29-EF40-46EC-84F9-B4F126B81804}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D54D66-5EB3-4D09-9326-681905EE9B2D}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1D51EB-2ABB-4777-A105-13286AB9F9F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE0C8E9-F4D5-4CC4-8606-B4813FA2E551}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>469</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N4">
-        <v>0.10830924286565957</v>
+        <v>0.53877330642271404</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>0.10681866024325613</v>
+        <v>9.5607473481738106E-2</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>9.560747348173812E-2</v>
+        <v>0.10681866024325611</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N7">
-        <v>0.53877330642271426</v>
+        <v>0.24201623957307239</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N8">
-        <v>0.24201623957307244</v>
+        <v>0.10847507741355955</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>469</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N9">
-        <v>0.10847507741355956</v>
+        <v>0.10830924286565956</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4522875D-EFB2-46DC-9C4F-EF6FC639137A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C2F6A1-E8DF-4491-80E6-EA398302154A}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple5.xlsx
+++ b/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E45133-0B74-4CC7-8B90-6910D5463335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E830070-A205-4BEC-B966-C235BA3B4B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15</t>
-  </si>
-  <si>
-    <t>S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05</t>
+    <t>S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15</t>
+  </si>
+  <si>
+    <t>S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05</v>
+        <v>S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15</v>
+        <v>S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D54D66-5EB3-4D09-9326-681905EE9B2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A2D6ED-38AB-4A84-9AD2-5E6E9DA9BEC5}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE0C8E9-F4D5-4CC4-8606-B4813FA2E551}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600198AF-AE85-4100-A3BE-A50D9CA1290A}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>469</v>
       </c>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>0.53877330642271404</v>
+        <v>9.560747348173812E-2</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>9.5607473481738106E-2</v>
+        <v>0.24201623957307244</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7152,7 +7152,7 @@
         <v>76</v>
       </c>
       <c r="N6">
-        <v>0.10681866024325611</v>
+        <v>0.10681866024325613</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>0.24201623957307239</v>
+        <v>0.10830924286565957</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N8">
-        <v>0.10847507741355955</v>
+        <v>0.53877330642271426</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>469</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N9">
-        <v>0.10830924286565956</v>
+        <v>0.10847507741355956</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C2F6A1-E8DF-4491-80E6-EA398302154A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEF56C6-8E3D-47C0-A26E-2973C64781DF}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple5.xlsx
+++ b/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E830070-A205-4BEC-B966-C235BA3B4B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41554CE-AEBF-434F-81A6-B73BA93B325A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15</t>
-  </si>
-  <si>
-    <t>S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01</t>
+    <t>S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14</t>
+  </si>
+  <si>
+    <t>S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01</v>
+        <v>S1aH7,S1b0115h01,S2d0217h04,S2d0217h24,S3f0328h02,S4aH7,S4g0401h23,S4h0405h19,S4h0405h23,S4i0411h06,S4i0411h22,S4j0413h21,S5aH7,S6n1217h05,S1c0119h03,S2d0217h20,S2e0219h05,S2e0219h19,S3f0328h01,S4aH8,S4g0401h02,S4g0401h21,S4i0411h23,S4k0423h01,S4k0423h02,S5l0515h04,S6n1217h02,S6n1217h06,S6n1217h22,S6o1220h23,S6p1229h21,S1aH8,S2d0217h02,S2e0219h23,S3f0328h04,S4g0401h03,S4h0405h22,S4h0405h24,S4k0423h03,S5aH1,S5l0515h05,S5l0515h21,S6aH7,S6n1217h23,S6o1220h01,S6p1229h01,S1b0115h05,S1b0115h20,S1b0115h24,S1c0119h21,S2d0217h21,S2e0219h20,S3f0328h06,S4h0405h21,S4j0413h05,S5l0515h20,S6m1206h01,S6n1217h21,S6o1220h06,S6p1229h22,S1b0115h04,S2e0219h01,S4g0401h19,S4i0411h01,S4i0411h24,S4k0423h20,S6p1229h05,S1aH1,S1b0115h06,S1b0115h22,S1c0119h02,S2aH7,S2e0219h06,S4g0401h01,S4h0405h04,S4i0411h20,S6m1206h21,S6m1206h23,S6n1217h03,S6n1217h04,S1c0119h22,S1c0119h23,S2aH1,S2d0217h05,S2d0217h06,S2d0217h22,S2e0219h03,S3aH7,S3f0328h19,S4g0401h20,S5aH8,S5l0515h24,S6n1217h20,S6p1229h03,S6p1229h04,S1b0115h02,S3aH1,S3f0328h03,S4i0411h05,S4j0413h02,S5l0515h22,S6o1220h05,S6p1229h02,S2e0219h22,S4g0401h24,S4h0405h02,S4h0405h06,S4j0413h23,S4k0423h21,S6p1229h19,S2d0217h19,S2e0219h21,S3f0328h20,S4aH1,S4g0401h05,S4h0405h03,S4i0411h21,S4j0413h03,S4j0413h06,S5l0515h01,S5l0515h02,S5l0515h19,S5l0515h23,S6aH1,S6o1220h21,S6p1229h23,S1c0119h05,S1c0119h24,S2d0217h01,S2e0219h02,S2e0219h04,S2e0219h24,S4i0411h03,S4i0411h19,S5l0515h03,S5l0515h06,S6m1206h03,S6n1217h01,S6n1217h19,S6o1220h03,S1b0115h03,S1c0119h06,S2aH8,S3f0328h21,S4i0411h04,S4j0413h22,S4k0423h04,S4k0423h05,S4k0423h06,S6m1206h02,S6o1220h20,S6o1220h24,S6p1229h06,S1b0115h21,S2d0217h23,S4g0401h22,S4h0405h05,S4j0413h19,S4j0413h24,S4k0423h22,S4k0423h23,S4k0423h24,S6aH8,S6m1206h04,S6m1206h06,S6m1206h20,S6n1217h24,S6o1220h02,S6o1220h04,S6o1220h19,S1c0119h01,S2d0217h03,S3f0328h22,S4g0401h04,S6m1206h19,S6o1220h22,S6p1229h24,S1b0115h19,S1b0115h23,S3f0328h05,S3f0328h24,S4h0405h01,S4j0413h01,S4j0413h20,S4k0423h19,S6m1206h05,S6m1206h22,S6m1206h24,S1c0119h04,S1c0119h19,S1c0119h20,S3aH8,S3f0328h23,S4g0401h06,S4h0405h20,S4i0411h02,S4j0413h04,S6p1229h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15</v>
+        <v>S1aH3,S1b0115h12,S1c0119h13,S1c0119h14,S2d0217h13,S4g0401h11,S4h0405h07,S4h0405h17,S4i0411h07,S5l0515h15,S5l0515h16,S5l0515h17,S6n1217h16,S6o1220h11,S1b0115h18,S1c0119h11,S1c0119h12,S2e0219h14,S3f0328h07,S4g0401h07,S6aH5,S1c0119h18,S2aH6,S2e0219h12,S3aH5,S3f0328h12,S4g0401h10,S4g0401h13,S4k0423h08,S4k0423h13,S4k0423h15,S5aH3,S5l0515h13,S6m1206h11,S6m1206h15,S6o1220h18,S6p1229h07,S6p1229h15,S1aH2,S1b0115h07,S1b0115h08,S1b0115h17,S2aH3,S2d0217h17,S3aH6,S4i0411h16,S4j0413h12,S4k0423h11,S5aH6,S6aH6,S6n1217h14,S2d0217h18,S2e0219h09,S3aH4,S3f0328h10,S3f0328h13,S3f0328h15,S4aH3,S4aH4,S4j0413h15,S4j0413h17,S4k0423h10,S5l0515h10,S5l0515h11,S6n1217h09,S6o1220h13,S6o1220h15,S1c0119h09,S3f0328h09,S4g0401h15,S4h0405h09,S4i0411h08,S6m1206h16,S6n1217h18,S6p1229h09,S1b0115h11,S1c0119h07,S1c0119h08,S2d0217h07,S2d0217h15,S2e0219h13,S4aH2,S4h0405h12,S6n1217h11,S6o1220h07,S2d0217h11,S4g0401h17,S4g0401h18,S4h0405h08,S4j0413h10,S4j0413h13,S5l0515h08,S6n1217h13,S6o1220h09,S6o1220h17,S6p1229h16,S1b0115h13,S2d0217h12,S2e0219h07,S2e0219h11,S2e0219h15,S3f0328h17,S4g0401h16,S4i0411h13,S4i0411h17,S4k0423h14,S5aH4,S6aH3,S6aH4,S6o1220h10,S6p1229h08,S1aH4,S1b0115h09,S2aH2,S2d0217h10,S2d0217h14,S2e0219h18,S3f0328h16,S4aH6,S4h0405h13,S4h0405h16,S4h0405h18,S4i0411h15,S4j0413h08,S4j0413h14,S5l0515h07,S5l0515h09,S6m1206h18,S6o1220h12,S6p1229h11,S6p1229h17,S1c0119h17,S3aH3,S3f0328h14,S4g0401h09,S4h0405h14,S4i0411h10,S4i0411h11,S4i0411h12,S4j0413h09,S4k0423h07,S4k0423h09,S4k0423h16,S5l0515h12,S6m1206h07,S6m1206h08,S6n1217h07,S6n1217h17,S1b0115h14,S2d0217h09,S2d0217h16,S2e0219h08,S3f0328h08,S4g0401h12,S4i0411h09,S6m1206h10,S6o1220h08,S6p1229h13,S6p1229h14,S1aH6,S1c0119h10,S4h0405h15,S4i0411h14,S4j0413h07,S6n1217h08,S6n1217h12,S6p1229h12,S1b0115h15,S2e0219h16,S2e0219h17,S4aH5,S4h0405h11,S4i0411h18,S4k0423h17,S6m1206h12,S6o1220h16,S6p1229h18,S1aH5,S1b0115h10,S1b0115h16,S1c0119h16,S2aH4,S2aH5,S2d0217h08,S3f0328h11,S3f0328h18,S4g0401h08,S4g0401h14,S4h0405h10,S4j0413h18,S4k0423h12,S5aH2,S5aH5,S5l0515h14,S5l0515h18,S6aH2,S6m1206h09,S6m1206h13,S6m1206h14,S6p1229h10,S1c0119h15,S2e0219h10,S3aH2,S4j0413h11,S4j0413h16,S4k0423h18,S6m1206h17,S6n1217h10,S6n1217h15,S6o1220h14</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A2D6ED-38AB-4A84-9AD2-5E6E9DA9BEC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3610EA97-A7F3-46A6-8C0F-72D0DE17643D}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600198AF-AE85-4100-A3BE-A50D9CA1290A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0020E4-CEB5-4E16-A4B0-F3287E9C45AF}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>469</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N4">
-        <v>9.560747348173812E-2</v>
+        <v>0.10681866024325613</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>0.24201623957307244</v>
+        <v>9.560747348173812E-2</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>0.10681866024325613</v>
+        <v>0.10847507741355956</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N7">
-        <v>0.10830924286565957</v>
+        <v>0.53877330642271426</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N8">
-        <v>0.53877330642271426</v>
+        <v>0.24201623957307244</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>469</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N9">
-        <v>0.10847507741355956</v>
+        <v>0.10830924286565957</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEF56C6-8E3D-47C0-A26E-2973C64781DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A373FDE0-D5E8-4165-84ED-239966EB8851}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
